--- a/Mini Project 1/performance.xlsx
+++ b/Mini Project 1/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Documents\GitHub\COMP472\Mini Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA14609-302E-4AB9-934A-F81F8FC8A3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EEE442-D7B1-447A-A808-A4C32532491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
   </bookViews>
   <sheets>
     <sheet name="MNB" sheetId="1" r:id="rId1"/>
@@ -2070,19 +2070,19 @@
         <v>8591</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R36:R39" si="6">K37-C37</f>
+        <f t="shared" ref="R37:R39" si="6">K37-C37</f>
         <v>0</v>
       </c>
       <c r="S37">
-        <f t="shared" ref="S36:S39" si="7">L37-D37</f>
+        <f t="shared" ref="S37:S39" si="7">L37-D37</f>
         <v>0</v>
       </c>
       <c r="T37">
-        <f t="shared" ref="T36:T39" si="8">M37-E37</f>
+        <f t="shared" ref="T37:T39" si="8">M37-E37</f>
         <v>-4.9999999999999989E-2</v>
       </c>
       <c r="U37">
-        <f t="shared" ref="U36:U39" si="9">N37-F37</f>
+        <f t="shared" ref="U37:U39" si="9">N37-F37</f>
         <v>-25773</v>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>-0.26999999999999996</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35:U55" si="3">L35-D35</f>
+        <f t="shared" ref="S35:U39" si="3">L35-D35</f>
         <v>-0.16999999999999998</v>
       </c>
       <c r="T35">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="Q37" s="4"/>
       <c r="R37">
-        <f t="shared" ref="R36:R39" si="4">K37-C37</f>
+        <f t="shared" ref="R37:R39" si="4">K37-C37</f>
         <v>0.36</v>
       </c>
       <c r="S37">
@@ -6713,7 +6713,7 @@
         <v>-0.16999999999999993</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35:U55" si="3">L35-D35</f>
+        <f t="shared" ref="S35:U39" si="3">L35-D35</f>
         <v>0.10000000000000003</v>
       </c>
       <c r="T35">
@@ -6809,7 +6809,7 @@
       </c>
       <c r="Q38" s="4"/>
       <c r="R38">
-        <f t="shared" ref="R37:R40" si="4">K38-C38</f>
+        <f t="shared" ref="R38:R39" si="4">K38-C38</f>
         <v>-2.9999999999999916E-2</v>
       </c>
       <c r="S38">
@@ -7435,7 +7435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52C7870-C944-4459-AA2F-E2DE2CA41F29}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S53" sqref="Q53:S53"/>
     </sheetView>
   </sheetViews>
@@ -9168,7 +9168,7 @@
       </c>
       <c r="Q38" s="4"/>
       <c r="R38">
-        <f t="shared" ref="R37:R39" si="6">K38-C38</f>
+        <f t="shared" ref="R38:R39" si="6">K38-C38</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="S38">
@@ -9449,19 +9449,19 @@
       </c>
       <c r="Q48" s="4"/>
       <c r="R48">
-        <f>K48-C48</f>
+        <f t="shared" ref="R48:U51" si="8">K48-C48</f>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="S48">
-        <f>L48-D48</f>
+        <f t="shared" si="8"/>
         <v>-0.25</v>
       </c>
       <c r="T48">
-        <f>M48-E48</f>
+        <f t="shared" si="8"/>
         <v>-0.18</v>
       </c>
       <c r="U48">
-        <f>N48-F48</f>
+        <f t="shared" si="8"/>
         <v>1780</v>
       </c>
     </row>
@@ -9502,19 +9502,19 @@
       </c>
       <c r="Q49" s="4"/>
       <c r="R49">
-        <f>K49-C49</f>
+        <f t="shared" si="8"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S49">
-        <f>L49-D49</f>
+        <f t="shared" si="8"/>
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="T49">
-        <f>M49-E49</f>
+        <f t="shared" si="8"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="U49">
-        <f>N49-F49</f>
+        <f t="shared" si="8"/>
         <v>8398</v>
       </c>
     </row>
@@ -9555,19 +9555,19 @@
       </c>
       <c r="Q50" s="4"/>
       <c r="R50">
-        <f>K50-C50</f>
+        <f t="shared" si="8"/>
         <v>-8.0000000000000071E-2</v>
       </c>
       <c r="S50">
-        <f>L50-D50</f>
+        <f t="shared" si="8"/>
         <v>-0.19000000000000006</v>
       </c>
       <c r="T50">
-        <f>M50-E50</f>
+        <f t="shared" si="8"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="U50">
-        <f>N50-F50</f>
+        <f t="shared" si="8"/>
         <v>16035</v>
       </c>
     </row>
@@ -9593,19 +9593,19 @@
       </c>
       <c r="Q51" s="4"/>
       <c r="R51">
-        <f>K51-C51</f>
+        <f t="shared" si="8"/>
         <v>0.66</v>
       </c>
       <c r="S51">
-        <f>L51-D51</f>
+        <f t="shared" si="8"/>
         <v>0.75</v>
       </c>
       <c r="T51">
-        <f>M51-E51</f>
+        <f t="shared" si="8"/>
         <v>0.71</v>
       </c>
       <c r="U51">
-        <f>N51-F51</f>
+        <f t="shared" si="8"/>
         <v>29204</v>
       </c>
     </row>
@@ -9653,11 +9653,11 @@
       </c>
       <c r="Q53" s="4"/>
       <c r="T53">
-        <f t="shared" ref="T53:T54" si="8">M53-E53</f>
+        <f t="shared" ref="T53:T54" si="9">M53-E53</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U53">
-        <f t="shared" ref="U53:U54" si="9">N53-F53</f>
+        <f t="shared" ref="U53:U54" si="10">N53-F53</f>
         <v>51546</v>
       </c>
     </row>
@@ -9706,11 +9706,11 @@
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="T54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="U54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51546</v>
       </c>
     </row>
@@ -9859,8 +9859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75E5C71-A31A-4132-B5A6-DEDE84AF7B58}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S49" sqref="R49:S49"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9978,31 +9978,31 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>2</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="4"/>
@@ -12008,7 +12008,7 @@
       </c>
       <c r="Q51" s="4"/>
       <c r="R51">
-        <f t="shared" ref="R49:S51" si="11">K51-C51</f>
+        <f t="shared" ref="R51:S51" si="11">K51-C51</f>
         <v>-0.13</v>
       </c>
       <c r="S51">

--- a/Mini Project 1/performance.xlsx
+++ b/Mini Project 1/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Documents\GitHub\COMP472\Mini Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EEE442-D7B1-447A-A808-A4C32532491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7FD36-B949-4242-A4D7-58A5D8036781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
   </bookViews>
   <sheets>
     <sheet name="MNB" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="MLP" sheetId="3" r:id="rId3"/>
     <sheet name="MNB Grid" sheetId="4" r:id="rId4"/>
     <sheet name="DT Grid" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="MLP Grid" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="35">
   <si>
     <t>precision</t>
   </si>
@@ -105,6 +107,48 @@
   </si>
   <si>
     <t>Best estimator (Sentiment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86008   positive  </t>
+  </si>
+  <si>
+    <t>115605  positive</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have THE BEST tortillas too. Made right i...     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutral   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have THE BEST tortillas too. Made right i...    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have THE BEST tortillas too. Made right i...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">admiration   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have THE BEST tortillas too. Made right i... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">approval   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutral  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive  </t>
   </si>
 </sst>
 </file>
@@ -494,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1514F72E-EDFF-4113-86F0-8EB70D24FF02}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="S53" sqref="Q53:S53"/>
     </sheetView>
   </sheetViews>
@@ -5052,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9EC04-D369-4673-A93F-6E3DA33B97E5}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37:S37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5062,9 +5106,7 @@
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4">
-        <v>0.59579792806425302</v>
-      </c>
+      <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5074,24 +5116,19 @@
       <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1">
-        <v>0.59713653823768997</v>
-      </c>
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1">
         <f>J1-B1</f>
-        <v>1.3386101734369493E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.59579792806425302</v>
-      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5101,22 +5138,17 @@
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2">
-        <v>0.59713653823768997</v>
-      </c>
       <c r="Q2" s="4"/>
       <c r="R2">
         <f t="shared" ref="R2:R5" si="0">J2-B2</f>
-        <v>1.3386101734369493E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.61232418726464299</v>
-      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -5126,22 +5158,17 @@
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3">
-        <v>0.58880063322898502</v>
-      </c>
       <c r="Q3" s="4"/>
       <c r="R3">
         <f t="shared" si="0"/>
-        <v>-2.3523554035657979E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.59267656917855505</v>
-      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5151,22 +5178,17 @@
       <c r="I4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J4">
-        <v>0.58832476834928304</v>
-      </c>
       <c r="Q4" s="4"/>
       <c r="R4">
         <f t="shared" si="0"/>
-        <v>-4.3518008292720012E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.51235426389219796</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5176,13 +5198,10 @@
       <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5">
-        <v>0.52279487738786201</v>
-      </c>
       <c r="Q5" s="4"/>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>1.0440613495664053E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -5246,52 +5265,32 @@
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2069</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0.64</v>
-      </c>
-      <c r="L8">
-        <v>0.72</v>
-      </c>
-      <c r="M8">
-        <v>0.68</v>
-      </c>
-      <c r="N8">
-        <v>5237</v>
-      </c>
       <c r="Q8" s="4"/>
       <c r="R8">
         <f>K8-C8</f>
-        <v>7.999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <f t="shared" ref="S8:U23" si="1">L8-D8</f>
-        <v>-9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>3168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -5299,52 +5298,32 @@
       <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1226</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <v>0.65</v>
-      </c>
-      <c r="L9">
-        <v>0.7</v>
-      </c>
-      <c r="M9">
-        <v>0.67</v>
-      </c>
-      <c r="N9">
-        <v>3015</v>
-      </c>
       <c r="Q9" s="4"/>
       <c r="R9">
         <f t="shared" ref="R9:U34" si="2">K9-C9</f>
-        <v>7.0000000000000062E-2</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>1789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -5352,52 +5331,32 @@
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1051</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
       <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10">
-        <v>0.61</v>
-      </c>
-      <c r="L10">
-        <v>0.48</v>
-      </c>
-      <c r="M10">
-        <v>0.54</v>
-      </c>
-      <c r="N10">
-        <v>2615</v>
-      </c>
       <c r="Q10" s="4"/>
       <c r="R10">
         <f t="shared" si="2"/>
-        <v>0.15999999999999998</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>1564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -5405,52 +5364,32 @@
       <c r="B11" s="4">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1615</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
       <c r="J11">
         <v>3</v>
       </c>
-      <c r="K11">
-        <v>0.48</v>
-      </c>
-      <c r="L11">
-        <v>0.4</v>
-      </c>
-      <c r="M11">
-        <v>0.44</v>
-      </c>
-      <c r="N11">
-        <v>4202</v>
-      </c>
       <c r="Q11" s="4"/>
       <c r="R11">
         <f t="shared" si="2"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>-0.16000000000000003</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>2587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -5458,52 +5397,32 @@
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2276</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
       <c r="J12">
         <v>4</v>
       </c>
-      <c r="K12">
-        <v>0.54</v>
-      </c>
-      <c r="L12">
-        <v>0.37</v>
-      </c>
-      <c r="M12">
-        <v>0.44</v>
-      </c>
-      <c r="N12">
-        <v>5652</v>
-      </c>
       <c r="Q12" s="4"/>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>7.0000000000000062E-2</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
-        <v>-0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <f t="shared" si="1"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>3376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -5511,52 +5430,32 @@
       <c r="B13" s="4">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F13" s="4">
-        <v>745</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13">
-        <v>0.52</v>
-      </c>
-      <c r="L13">
-        <v>0.46</v>
-      </c>
-      <c r="M13">
-        <v>0.49</v>
-      </c>
-      <c r="N13">
-        <v>1781</v>
-      </c>
       <c r="Q13" s="4"/>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>3.0000000000000027E-2</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
-        <v>-8.0000000000000016E-2</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <f t="shared" si="1"/>
-        <v>-3.0000000000000027E-2</v>
+        <v>0</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
-        <v>1036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -5564,52 +5463,32 @@
       <c r="B14" s="4">
         <v>6</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="F14" s="4">
-        <v>959</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
       <c r="J14">
         <v>6</v>
       </c>
-      <c r="K14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L14">
-        <v>0.4</v>
-      </c>
-      <c r="M14">
-        <v>0.47</v>
-      </c>
-      <c r="N14">
-        <v>2490</v>
-      </c>
       <c r="Q14" s="4"/>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>9.000000000000008E-2</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>-0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>1531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -5617,36 +5496,16 @@
       <c r="B15" s="4">
         <v>7</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1208</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
       <c r="J15">
         <v>7</v>
       </c>
-      <c r="K15">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L15">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M15">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N15">
-        <v>2907</v>
-      </c>
       <c r="Q15" s="4"/>
       <c r="R15">
         <f t="shared" si="2"/>
@@ -5654,15 +5513,15 @@
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>-3.9999999999999925E-2</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>1699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5670,52 +5529,32 @@
       <c r="B16" s="4">
         <v>8</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F16" s="4">
-        <v>389</v>
-      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="2"/>
       <c r="J16">
         <v>8</v>
       </c>
-      <c r="K16">
-        <v>0.47</v>
-      </c>
-      <c r="L16">
-        <v>0.54</v>
-      </c>
-      <c r="M16">
-        <v>0.5</v>
-      </c>
-      <c r="N16">
-        <v>1049</v>
-      </c>
       <c r="Q16" s="4"/>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -5723,52 +5562,32 @@
       <c r="B17" s="4">
         <v>9</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="F17" s="4">
-        <v>926</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="2"/>
       <c r="J17">
         <v>9</v>
       </c>
-      <c r="K17">
-        <v>0.48</v>
-      </c>
-      <c r="L17">
-        <v>0.34</v>
-      </c>
-      <c r="M17">
-        <v>0.4</v>
-      </c>
-      <c r="N17">
-        <v>2369</v>
-      </c>
       <c r="Q17" s="4"/>
       <c r="R17">
         <f t="shared" si="2"/>
-        <v>3.999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
-        <v>-0.10999999999999999</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <f t="shared" si="1"/>
-        <v>-4.9999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
-        <v>1443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -5776,40 +5595,20 @@
       <c r="B18" s="4">
         <v>10</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1531</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="2"/>
       <c r="J18">
         <v>10</v>
       </c>
-      <c r="K18">
-        <v>0.53</v>
-      </c>
-      <c r="L18">
-        <v>0.47</v>
-      </c>
-      <c r="M18">
-        <v>0.5</v>
-      </c>
-      <c r="N18">
-        <v>3918</v>
-      </c>
       <c r="Q18" s="4"/>
       <c r="R18">
         <f t="shared" si="2"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
@@ -5821,7 +5620,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>2387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -5829,52 +5628,32 @@
       <c r="B19" s="4">
         <v>11</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="F19" s="4">
-        <v>585</v>
-      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="2"/>
       <c r="J19">
         <v>11</v>
       </c>
-      <c r="K19">
-        <v>0.52</v>
-      </c>
-      <c r="L19">
-        <v>0.48</v>
-      </c>
-      <c r="M19">
-        <v>0.5</v>
-      </c>
-      <c r="N19">
-        <v>1484</v>
-      </c>
       <c r="Q19" s="4"/>
       <c r="R19">
         <f t="shared" si="2"/>
-        <v>-3.0000000000000027E-2</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>7.999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <f t="shared" si="1"/>
-        <v>3.999999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -5882,52 +5661,32 @@
       <c r="B20" s="4">
         <v>12</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.44</v>
-      </c>
-      <c r="F20" s="4">
-        <v>268</v>
-      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="2"/>
       <c r="J20">
         <v>12</v>
       </c>
-      <c r="K20">
-        <v>0.41</v>
-      </c>
-      <c r="L20">
-        <v>0.51</v>
-      </c>
-      <c r="M20">
-        <v>0.45</v>
-      </c>
-      <c r="N20">
-        <v>725</v>
-      </c>
       <c r="Q20" s="4"/>
       <c r="R20">
         <f t="shared" si="2"/>
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
-        <v>0.10000000000000003</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -5935,40 +5694,20 @@
       <c r="B21" s="4">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="F21" s="4">
-        <v>609</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="2"/>
       <c r="J21">
         <v>13</v>
       </c>
-      <c r="K21">
-        <v>0.49</v>
-      </c>
-      <c r="L21">
-        <v>0.43</v>
-      </c>
-      <c r="M21">
-        <v>0.45</v>
-      </c>
-      <c r="N21">
-        <v>1458</v>
-      </c>
       <c r="Q21" s="4"/>
       <c r="R21">
         <f t="shared" si="2"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
@@ -5976,11 +5715,11 @@
       </c>
       <c r="T21">
         <f t="shared" si="1"/>
-        <v>-2.9999999999999971E-2</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
-        <v>849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -5988,52 +5727,32 @@
       <c r="B22" s="4">
         <v>14</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="F22" s="4">
-        <v>383</v>
-      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="2"/>
       <c r="J22">
         <v>14</v>
       </c>
-      <c r="K22">
-        <v>0.61</v>
-      </c>
-      <c r="L22">
-        <v>0.59</v>
-      </c>
-      <c r="M22">
-        <v>0.6</v>
-      </c>
-      <c r="N22">
-        <v>902</v>
-      </c>
       <c r="Q22" s="4"/>
       <c r="R22">
         <f t="shared" si="2"/>
-        <v>-7.999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
-        <v>2.9999999999999916E-2</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <f t="shared" si="1"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
-        <v>519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -6041,52 +5760,32 @@
       <c r="B23" s="4">
         <v>15</v>
       </c>
-      <c r="C23" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1481</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="2"/>
       <c r="J23">
         <v>15</v>
       </c>
-      <c r="K23">
-        <v>0.83</v>
-      </c>
-      <c r="L23">
-        <v>0.85</v>
-      </c>
-      <c r="M23">
-        <v>0.84</v>
-      </c>
-      <c r="N23">
-        <v>3520</v>
-      </c>
       <c r="Q23" s="4"/>
       <c r="R23">
         <f t="shared" si="2"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>3.0000000000000027E-2</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>2039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -6094,52 +5793,32 @@
       <c r="B24" s="4">
         <v>16</v>
       </c>
-      <c r="C24" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="F24" s="4">
-        <v>66</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
       <c r="J24">
         <v>16</v>
       </c>
-      <c r="K24">
-        <v>0.42</v>
-      </c>
-      <c r="L24">
-        <v>0.41</v>
-      </c>
-      <c r="M24">
-        <v>0.42</v>
-      </c>
-      <c r="N24">
-        <v>178</v>
-      </c>
       <c r="Q24" s="4"/>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>1.9999999999999962E-2</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>4.9999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -6147,52 +5826,32 @@
       <c r="B25" s="4">
         <v>17</v>
       </c>
-      <c r="C25" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="F25" s="4">
-        <v>872</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="2"/>
       <c r="J25">
         <v>17</v>
       </c>
-      <c r="K25">
-        <v>0.54</v>
-      </c>
-      <c r="L25">
-        <v>0.51</v>
-      </c>
-      <c r="M25">
-        <v>0.53</v>
-      </c>
-      <c r="N25">
-        <v>2113</v>
-      </c>
       <c r="Q25" s="4"/>
       <c r="R25">
         <f t="shared" si="2"/>
-        <v>-3.9999999999999925E-2</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <f t="shared" si="2"/>
-        <v>4.9999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <f t="shared" si="2"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="U25">
         <f t="shared" si="2"/>
-        <v>1241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -6200,52 +5859,32 @@
       <c r="B26" s="4">
         <v>18</v>
       </c>
-      <c r="C26" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1035</v>
-      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="2"/>
       <c r="J26">
         <v>18</v>
       </c>
-      <c r="K26">
-        <v>0.66</v>
-      </c>
-      <c r="L26">
-        <v>0.8</v>
-      </c>
-      <c r="M26">
-        <v>0.73</v>
-      </c>
-      <c r="N26">
-        <v>2428</v>
-      </c>
       <c r="Q26" s="4"/>
       <c r="R26">
         <f t="shared" si="2"/>
-        <v>-8.9999999999999969E-2</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f t="shared" si="2"/>
-        <v>0.1100000000000001</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <f t="shared" si="2"/>
-        <v>1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <f t="shared" si="2"/>
-        <v>1393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -6253,52 +5892,32 @@
       <c r="B27" s="4">
         <v>19</v>
       </c>
-      <c r="C27" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="F27" s="4">
-        <v>148</v>
-      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
       <c r="J27">
         <v>19</v>
       </c>
-      <c r="K27">
-        <v>0.45</v>
-      </c>
-      <c r="L27">
-        <v>0.41</v>
-      </c>
-      <c r="M27">
-        <v>0.43</v>
-      </c>
-      <c r="N27">
-        <v>406</v>
-      </c>
       <c r="Q27" s="4"/>
       <c r="R27">
         <f t="shared" si="2"/>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
-        <v>0.14999999999999997</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <f t="shared" si="2"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -6306,52 +5925,32 @@
       <c r="B28" s="4">
         <v>20</v>
       </c>
-      <c r="C28" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="F28" s="4">
-        <v>11077</v>
-      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
       <c r="J28">
         <v>20</v>
       </c>
-      <c r="K28">
-        <v>0.64</v>
-      </c>
-      <c r="L28">
-        <v>0.75</v>
-      </c>
-      <c r="M28">
-        <v>0.69</v>
-      </c>
-      <c r="N28">
-        <v>27720</v>
-      </c>
       <c r="Q28" s="4"/>
       <c r="R28">
         <f t="shared" si="2"/>
-        <v>-6.9999999999999951E-2</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <f t="shared" si="2"/>
-        <v>8.9999999999999969E-2</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <f t="shared" si="2"/>
-        <v>9.9999999999998979E-3</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <f t="shared" si="2"/>
-        <v>16643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -6359,52 +5958,32 @@
       <c r="B29" s="4">
         <v>21</v>
       </c>
-      <c r="C29" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.37</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="F29" s="4">
-        <v>875</v>
-      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
       <c r="J29">
         <v>21</v>
       </c>
-      <c r="K29">
-        <v>0.53</v>
-      </c>
-      <c r="L29">
-        <v>0.52</v>
-      </c>
-      <c r="M29">
-        <v>0.52</v>
-      </c>
-      <c r="N29">
-        <v>2217</v>
-      </c>
       <c r="Q29" s="4"/>
       <c r="R29">
         <f t="shared" si="2"/>
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <f t="shared" si="2"/>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="T29">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <f t="shared" si="2"/>
-        <v>1342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -6412,52 +5991,32 @@
       <c r="B30" s="4">
         <v>22</v>
       </c>
-      <c r="C30" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0.26</v>
-      </c>
-      <c r="F30" s="4">
-        <v>122</v>
-      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
       <c r="J30">
         <v>22</v>
       </c>
-      <c r="K30">
-        <v>0.44</v>
-      </c>
-      <c r="L30">
-        <v>0.27</v>
-      </c>
-      <c r="M30">
-        <v>0.34</v>
-      </c>
-      <c r="N30">
-        <v>354</v>
-      </c>
       <c r="Q30" s="4"/>
       <c r="R30">
         <f t="shared" si="2"/>
-        <v>-0.11000000000000004</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <f t="shared" si="2"/>
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -6465,52 +6024,32 @@
       <c r="B31" s="4">
         <v>23</v>
       </c>
-      <c r="C31" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="F31" s="4">
-        <v>961</v>
-      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="2"/>
       <c r="J31">
         <v>23</v>
       </c>
-      <c r="K31">
-        <v>0.47</v>
-      </c>
-      <c r="L31">
-        <v>0.33</v>
-      </c>
-      <c r="M31">
-        <v>0.39</v>
-      </c>
-      <c r="N31">
-        <v>2398</v>
-      </c>
       <c r="Q31" s="4"/>
       <c r="R31">
         <f t="shared" si="2"/>
-        <v>-0.10999999999999999</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <f t="shared" si="2"/>
-        <v>0.11000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="2"/>
-        <v>1437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -6518,52 +6057,32 @@
       <c r="B32" s="4">
         <v>24</v>
       </c>
-      <c r="C32" s="4">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F32" s="4">
-        <v>152</v>
-      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="2"/>
       <c r="J32">
         <v>24</v>
       </c>
-      <c r="K32">
-        <v>0.41</v>
-      </c>
-      <c r="L32">
-        <v>0.46</v>
-      </c>
-      <c r="M32">
-        <v>0.43</v>
-      </c>
-      <c r="N32">
-        <v>380</v>
-      </c>
       <c r="Q32" s="4"/>
       <c r="R32">
         <f t="shared" si="2"/>
-        <v>-0.14000000000000007</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <f t="shared" si="2"/>
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <f t="shared" si="2"/>
-        <v>0.14999999999999997</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <f t="shared" si="2"/>
-        <v>228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -6571,52 +6090,32 @@
       <c r="B33" s="4">
         <v>25</v>
       </c>
-      <c r="C33" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F33" s="4">
-        <v>287</v>
-      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="2"/>
       <c r="J33">
         <v>25</v>
       </c>
-      <c r="K33">
-        <v>0.62</v>
-      </c>
-      <c r="L33">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M33">
-        <v>0.59</v>
-      </c>
-      <c r="N33">
-        <v>768</v>
-      </c>
       <c r="Q33" s="4"/>
       <c r="R33">
         <f t="shared" si="2"/>
-        <v>-5.0000000000000044E-2</v>
+        <v>0</v>
       </c>
       <c r="S33">
         <f t="shared" si="2"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <f t="shared" si="2"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <f t="shared" si="2"/>
-        <v>481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -6624,52 +6123,32 @@
       <c r="B34" s="4">
         <v>26</v>
       </c>
-      <c r="C34" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="F34" s="4">
-        <v>736</v>
-      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="2"/>
       <c r="J34">
         <v>26</v>
       </c>
-      <c r="K34">
-        <v>0.54</v>
-      </c>
-      <c r="L34">
-        <v>0.51</v>
-      </c>
-      <c r="M34">
-        <v>0.52</v>
-      </c>
-      <c r="N34">
-        <v>1920</v>
-      </c>
       <c r="Q34" s="4"/>
       <c r="R34">
         <f t="shared" si="2"/>
-        <v>-0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="T34">
         <f t="shared" si="2"/>
-        <v>3.0000000000000027E-2</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <f t="shared" si="2"/>
-        <v>1184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -6677,44 +6156,24 @@
       <c r="B35" s="4">
         <v>27</v>
       </c>
-      <c r="C35" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="F35" s="4">
-        <v>712</v>
-      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="2"/>
       <c r="J35">
         <v>27</v>
       </c>
-      <c r="K35">
-        <v>0.53</v>
-      </c>
-      <c r="L35">
-        <v>0.51</v>
-      </c>
-      <c r="M35">
-        <v>0.52</v>
-      </c>
-      <c r="N35">
-        <v>1704</v>
-      </c>
       <c r="Q35" s="4"/>
       <c r="R35">
         <f>K35-C35</f>
-        <v>-0.16999999999999993</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <f t="shared" ref="S35:U39" si="3">L35-D35</f>
-        <v>0.10000000000000003</v>
+        <v>0</v>
       </c>
       <c r="T35">
         <f t="shared" si="3"/>
@@ -6722,7 +6181,7 @@
       </c>
       <c r="U35">
         <f t="shared" si="3"/>
-        <v>992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -6744,24 +6203,14 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F37" s="4">
-        <v>34364</v>
-      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="2"/>
       <c r="J37" t="s">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>0.6</v>
-      </c>
-      <c r="N37">
-        <v>85910</v>
-      </c>
       <c r="Q37" s="4"/>
       <c r="T37">
         <f t="shared" si="3"/>
@@ -6769,7 +6218,7 @@
       </c>
       <c r="U37">
         <f t="shared" si="3"/>
-        <v>51546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -6777,52 +6226,32 @@
       <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="F38" s="4">
-        <v>34364</v>
-      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="2"/>
       <c r="J38" t="s">
         <v>18</v>
       </c>
-      <c r="K38">
-        <v>0.54</v>
-      </c>
-      <c r="L38">
-        <v>0.51</v>
-      </c>
-      <c r="M38">
-        <v>0.52</v>
-      </c>
-      <c r="N38">
-        <v>85910</v>
-      </c>
       <c r="Q38" s="4"/>
       <c r="R38">
         <f t="shared" ref="R38:R39" si="4">K38-C38</f>
-        <v>-2.9999999999999916E-2</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <f t="shared" si="3"/>
-        <v>1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="T38">
         <f t="shared" si="3"/>
-        <v>1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <f t="shared" si="3"/>
-        <v>51546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -6830,39 +6259,19 @@
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="F39" s="4">
-        <v>34364</v>
-      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="J39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K39">
-        <v>0.59</v>
-      </c>
-      <c r="L39">
-        <v>0.6</v>
-      </c>
-      <c r="M39">
-        <v>0.59</v>
-      </c>
-      <c r="N39">
-        <v>85910</v>
-      </c>
       <c r="Q39" s="4"/>
       <c r="R39">
         <f t="shared" si="4"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <f t="shared" si="3"/>
@@ -6874,7 +6283,7 @@
       </c>
       <c r="U39">
         <f t="shared" si="3"/>
-        <v>51546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -6898,9 +6307,7 @@
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="4">
-        <v>0.72104527994412704</v>
-      </c>
+      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -6919,9 +6326,7 @@
       <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="4">
-        <v>0.72104527994412704</v>
-      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -6940,9 +6345,7 @@
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="4">
-        <v>0.73226620483906102</v>
-      </c>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -6961,9 +6364,7 @@
       <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="4">
-        <v>0.72344044524278694</v>
-      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -6982,9 +6383,7 @@
       <c r="A45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="4">
-        <v>0.70813896077425897</v>
-      </c>
+      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -7046,18 +6445,10 @@
       <c r="B48" s="4">
         <v>0</v>
       </c>
-      <c r="C48" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="F48" s="4">
-        <v>3840</v>
-      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3"/>
@@ -7069,19 +6460,19 @@
       <c r="Q48" s="4"/>
       <c r="R48">
         <f t="shared" ref="R48:U55" si="5">K48-C48</f>
-        <v>-0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <f t="shared" si="5"/>
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="T48">
         <f t="shared" si="5"/>
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <f t="shared" si="5"/>
-        <v>-3840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
@@ -7089,18 +6480,10 @@
       <c r="B49" s="4">
         <v>1</v>
       </c>
-      <c r="C49" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.77</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="F49" s="4">
-        <v>7596</v>
-      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="3"/>
@@ -7112,19 +6495,19 @@
       <c r="Q49" s="4"/>
       <c r="R49">
         <f t="shared" si="5"/>
-        <v>-0.66</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <f t="shared" si="5"/>
-        <v>-0.77</v>
+        <v>0</v>
       </c>
       <c r="T49">
         <f t="shared" si="5"/>
-        <v>-0.71</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <f t="shared" si="5"/>
-        <v>-7596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
@@ -7132,18 +6515,10 @@
       <c r="B50" s="4">
         <v>2</v>
       </c>
-      <c r="C50" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0.69</v>
-      </c>
-      <c r="F50" s="4">
-        <v>11077</v>
-      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="3"/>
@@ -7155,19 +6530,19 @@
       <c r="Q50" s="4"/>
       <c r="R50">
         <f t="shared" si="5"/>
-        <v>-0.71</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <f t="shared" si="5"/>
-        <v>-0.67</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <f t="shared" si="5"/>
-        <v>-0.69</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <f t="shared" si="5"/>
-        <v>-11077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -7175,18 +6550,10 @@
       <c r="B51" s="4">
         <v>3</v>
       </c>
-      <c r="C51" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="F51" s="4">
-        <v>11851</v>
-      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="3"/>
@@ -7198,19 +6565,19 @@
       <c r="Q51" s="4"/>
       <c r="R51">
         <f t="shared" si="5"/>
-        <v>-0.84</v>
+        <v>0</v>
       </c>
       <c r="S51">
         <f t="shared" si="5"/>
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="T51">
         <f t="shared" si="5"/>
-        <v>-0.79</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <f t="shared" si="5"/>
-        <v>-11851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -7237,12 +6604,8 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="F53" s="4">
-        <v>34364</v>
-      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
@@ -7262,11 +6625,11 @@
       </c>
       <c r="T53">
         <f t="shared" si="5"/>
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <f t="shared" si="5"/>
-        <v>-34364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7274,18 +6637,10 @@
       <c r="B54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="D54" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="F54" s="4">
-        <v>34364</v>
-      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="3"/>
@@ -7296,19 +6651,19 @@
       <c r="Q54" s="4"/>
       <c r="R54">
         <f t="shared" si="5"/>
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <f t="shared" si="5"/>
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <f t="shared" si="5"/>
-        <v>-0.71</v>
+        <v>0</v>
       </c>
       <c r="U54">
         <f t="shared" si="5"/>
-        <v>-34364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -7316,18 +6671,10 @@
       <c r="B55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="F55" s="4">
-        <v>34364</v>
-      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="3"/>
@@ -7339,19 +6686,19 @@
       <c r="Q55" s="4"/>
       <c r="R55">
         <f t="shared" si="5"/>
-        <v>-0.73</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <f t="shared" si="5"/>
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="T55">
         <f t="shared" si="5"/>
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="U55">
         <f t="shared" si="5"/>
-        <v>-34364</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7435,7 +6782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52C7870-C944-4459-AA2F-E2DE2CA41F29}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S53" sqref="Q53:S53"/>
     </sheetView>
   </sheetViews>
@@ -9859,7 +9206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75E5C71-A31A-4132-B5A6-DEDE84AF7B58}">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
@@ -12233,11 +11580,1479 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46CBAC9-9280-409E-9515-29626464D193}">
+  <dimension ref="A1:U71"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <f>J1-B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2">
+        <f t="shared" ref="R2:R5" si="0">J2-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1"/>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="1"/>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8">
+        <f>K8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:U23" si="1">L8-D8</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9">
+        <f t="shared" ref="R9:U34" si="2">K9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="1"/>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="1"/>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="1"/>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="1"/>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="1"/>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="1"/>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="1"/>
+      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="1"/>
+      <c r="J23">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24">
+        <v>16</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25">
+        <v>17</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="1"/>
+      <c r="J25">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="1"/>
+      <c r="J26">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="1"/>
+      <c r="J27">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="1"/>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="1"/>
+      <c r="J29">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="1"/>
+      <c r="J30">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="1"/>
+      <c r="J31">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32">
+        <v>24</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="1"/>
+      <c r="J32">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33">
+        <v>25</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="1"/>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="1"/>
+      <c r="J34">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="4"/>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="1"/>
+      <c r="J35">
+        <v>27</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35">
+        <f>K35-C35</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:U35" si="3">L35-D35</f>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="1"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37">
+        <f>J37-B37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="4"/>
+      <c r="R38">
+        <f t="shared" ref="R38:R41" si="4">J38-B38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="Q39" s="4"/>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q41" s="4"/>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="1"/>
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="1"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="1"/>
+      <c r="Q44" s="4"/>
+      <c r="R44">
+        <f t="shared" ref="R44:U47" si="5">K44-C44</f>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="1"/>
+      <c r="Q45" s="4"/>
+      <c r="R45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="1"/>
+      <c r="Q46" s="4"/>
+      <c r="R46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="1"/>
+      <c r="Q47" s="4"/>
+      <c r="R47">
+        <f>K47-C47</f>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="1"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="1"/>
+      <c r="Q49" s="4"/>
+      <c r="T49">
+        <f t="shared" ref="T49:U51" si="6">M49-E49</f>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="1"/>
+      <c r="Q50" s="4"/>
+      <c r="R50">
+        <f>K50-C50</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>L50-D50</f>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="1"/>
+      <c r="Q51" s="4"/>
+      <c r="R51">
+        <f t="shared" ref="R51:S51" si="7">K51-C51</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="R8:R36">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S8:S39">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T39">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R52:R55 R48">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S52:S55 S48">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52:T55 T48">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R37:R41">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44:T47">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R49:T51">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ED07CC-E145-478C-B12F-90A0EF61E9DE}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B45" sqref="A41:B45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13048,4 +13863,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0A4F7C-4064-4655-B0B6-BF2205051C6E}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Mini Project 1/performance.xlsx
+++ b/Mini Project 1/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Documents\GitHub\COMP472\Mini Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C2EC78-C0B3-48F4-A5F7-6505DC7D1B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08972BAD-955D-4846-9F07-AF65376E2727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="6" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
   </bookViews>
   <sheets>
     <sheet name="MNB" sheetId="1" r:id="rId1"/>
@@ -202,12 +202,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -246,23 +252,63 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -574,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1514F72E-EDFF-4113-86F0-8EB70D24FF02}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="T55" sqref="T54:U55"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,6 +2777,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="R1:U1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2740,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C70A5A-7099-4F69-B4B5-877577AE1B64}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="T55" sqref="T54:U55"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R8" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4976,6 +5027,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="R1:U1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4984,8 +5040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9EC04-D369-4673-A93F-6E3DA33B97E5}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R19" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7425,6 +7481,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="R1:U1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7433,8 +7494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52C7870-C944-4459-AA2F-E2DE2CA41F29}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U55" sqref="R55:U56"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R13" sqref="R1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9772,6 +9833,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="R1:U1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9780,8 +9846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75E5C71-A31A-4132-B5A6-DEDE84AF7B58}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11556,7 +11622,7 @@
       <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>0.61</v>
       </c>
       <c r="D40" s="8">
@@ -12142,6 +12208,11 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q1:U1048576">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13530,10 +13601,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ED07CC-E145-478C-B12F-90A0EF61E9DE}">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43:F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13544,1657 +13615,2046 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11">
         <v>0.59469211966010904</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="11">
         <v>0.40446395130688401</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11">
         <v>0.59469211966010904</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="8">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11">
         <v>0.50552904202071902</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11">
         <v>0.61184786403312497</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="8">
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11">
         <v>0.51040116446962802</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="11">
         <v>0.591520708979835</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="8">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11">
         <v>0.46447510370878298</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>0.51684703580818603</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="8">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11">
         <v>0.37100431754569302</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <v>0.82</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="11">
         <v>0.66</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="11">
         <v>2101</v>
       </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="11">
         <v>2101</v>
       </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="11">
         <v>0.6</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <v>0.84</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="11">
         <v>0.7</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="11">
         <v>1255</v>
       </c>
-      <c r="J9" s="8">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="11">
         <v>0.63</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="11">
         <v>0.66</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="11">
         <v>0.65</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="11">
         <v>1255</v>
       </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="11">
         <v>0.44</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <v>0.72</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="11">
         <v>1022</v>
       </c>
-      <c r="J10" s="8">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
         <v>2</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="11">
         <v>0.48</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="11">
         <v>0.33</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="11">
         <v>0.39</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="11">
         <v>1022</v>
       </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="8">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="11">
         <v>0.4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="11">
         <v>0.47</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="11">
         <v>1682</v>
       </c>
-      <c r="J11" s="8">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
         <v>3</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="11">
         <v>0.35</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="11">
         <v>0.19</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="11">
         <v>0.24</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="11">
         <v>1682</v>
       </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="8">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="11">
         <v>0.45</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="11">
         <v>0.5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="11">
         <v>2208</v>
       </c>
-      <c r="J12" s="8">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
         <v>4</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="11">
         <v>0.42</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="11">
         <v>0.2</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="11">
         <v>0.27</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="11">
         <v>2208</v>
       </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="8">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="11">
         <v>0.46</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="11">
         <v>0.5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="11">
         <v>691</v>
       </c>
-      <c r="J13" s="8">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
         <v>5</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="11">
         <v>0.4</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="11">
         <v>0.2</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="11">
         <v>0.26</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="11">
         <v>691</v>
       </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="11">
         <v>0.48</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="11">
         <v>0.52</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="11">
         <v>986</v>
       </c>
-      <c r="J14" s="8">
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
         <v>6</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="11">
         <v>0.45</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="11">
         <v>0.23</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="11">
         <v>0.31</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="11">
         <v>986</v>
       </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11">
         <v>7</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="11">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="11">
         <v>1172</v>
       </c>
-      <c r="J15" s="8">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
         <v>7</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="11">
         <v>0.5</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="11">
         <v>0.24</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="11">
         <v>0.32</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="11">
         <v>1172</v>
       </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11">
         <v>8</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="11">
         <v>0.5</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="11">
         <v>0.53</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="11">
         <v>420</v>
       </c>
-      <c r="J16" s="8">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
         <v>8</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="11">
         <v>0.49</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="11">
         <v>0.36</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="11">
         <v>420</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="8">
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11">
         <v>9</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="11">
         <v>0.46</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="11">
         <v>0.45</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="11">
         <v>0.46</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="11">
         <v>990</v>
       </c>
-      <c r="J17" s="8">
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
         <v>9</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="11">
         <v>0.44</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="11">
         <v>0.16</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="11">
         <v>0.23</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="11">
         <v>990</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8">
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11">
         <v>10</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="11">
         <v>0.53</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="11">
         <v>0.47</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="11">
         <v>0.5</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="11">
         <v>1512</v>
       </c>
-      <c r="J18" s="8">
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11">
         <v>10</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="11">
         <v>0.43</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="11">
         <v>0.22</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="11">
         <v>1512</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8">
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11">
         <v>11</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="11">
         <v>0.38</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="11">
         <v>0.45</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="11">
         <v>597</v>
       </c>
-      <c r="J19" s="8">
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11">
         <v>11</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="11">
         <v>0.54</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="11">
         <v>0.23</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="11">
         <v>0.33</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="11">
         <v>597</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8">
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11">
         <v>12</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="11">
         <v>0.53</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="11">
         <v>0.41</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="11">
         <v>0.46</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="11">
         <v>289</v>
       </c>
-      <c r="J20" s="8">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11">
         <v>12</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="11">
         <v>0.21</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="11">
         <v>0.3</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="11">
         <v>289</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8">
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11">
         <v>13</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="11">
         <v>0.52</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="11">
         <v>0.42</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="11">
         <v>0.47</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="11">
         <v>594</v>
       </c>
-      <c r="J21" s="8">
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
         <v>13</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="11">
         <v>0.2</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="11">
         <v>0.3</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="11">
         <v>594</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8">
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11">
         <v>14</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="11">
         <v>0.66</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="11">
         <v>0.61</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="11">
         <v>0.63</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="11">
         <v>332</v>
       </c>
-      <c r="J22" s="8">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
         <v>14</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="11">
         <v>0.64</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="11">
         <v>0.38</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="11">
         <v>0.48</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="11">
         <v>332</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="8">
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11">
         <v>15</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="11">
         <v>0.86</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="11">
         <v>0.83</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="11">
         <v>0.84</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="11">
         <v>1386</v>
       </c>
-      <c r="J23" s="8">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11">
         <v>15</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="11">
         <v>0.85</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="11">
         <v>0.8</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="11">
         <v>0.82</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="11">
         <v>1386</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8">
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11">
         <v>16</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="11">
         <v>0.48</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="11">
         <v>0.36</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="11">
         <v>0.41</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="11">
         <v>76</v>
       </c>
-      <c r="J24" s="8">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
         <v>16</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="11">
         <v>0.38</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="11">
         <v>0.11</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="11">
         <v>0.16</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="11">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="8">
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11">
         <v>17</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="11">
         <v>0.61</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="11">
         <v>0.47</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="11">
         <v>0.53</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="11">
         <v>857</v>
       </c>
-      <c r="J25" s="8">
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11">
         <v>17</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="11">
         <v>0.34</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="11">
         <v>0.42</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="11">
         <v>857</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8">
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11">
         <v>18</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="11">
         <v>0.77</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="11">
         <v>0.7</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="11">
         <v>0.73</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="11">
         <v>1047</v>
       </c>
-      <c r="J26" s="8">
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11">
         <v>18</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="11">
         <v>0.73</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="11">
         <v>0.67</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="11">
         <v>0.7</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="11">
         <v>1047</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8">
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11">
         <v>19</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="11">
         <v>0.49</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="11">
         <v>0.26</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="11">
         <v>0.34</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="11">
         <v>170</v>
       </c>
-      <c r="J27" s="8">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11">
         <v>19</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="11">
         <v>0.65</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="11">
         <v>0.15</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="11">
         <v>0.25</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="11">
         <v>170</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8">
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11">
         <v>20</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="11">
         <v>0.71</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="11">
         <v>0.65</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="11">
         <v>0.68</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="11">
         <v>11029</v>
       </c>
-      <c r="J28" s="8">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11">
         <v>20</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="11">
         <v>0.47</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="11">
         <v>0.86</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="11">
         <v>0.61</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="11">
         <v>11029</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8">
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11">
         <v>21</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="11">
         <v>0.67</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="11">
         <v>0.39</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="11">
         <v>0.49</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="11">
         <v>921</v>
       </c>
-      <c r="J29" s="8">
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11">
         <v>21</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="11">
         <v>0.61</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="11">
         <v>0.3</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="11">
         <v>0.4</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="11">
         <v>921</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8">
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11">
         <v>22</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="11">
         <v>0.53</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="11">
         <v>0.18</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="11">
         <v>0.27</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="11">
         <v>129</v>
       </c>
-      <c r="J30" s="8">
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11">
         <v>22</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="11">
         <v>0.67</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="11">
         <v>0.06</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="11">
         <v>0.11</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="11">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8">
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11">
         <v>23</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="11">
         <v>0.23</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="11">
         <v>0.33</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="11">
         <v>958</v>
       </c>
-      <c r="J31" s="8">
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11">
         <v>23</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="11">
         <v>0.47</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="11">
         <v>0.1</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="11">
         <v>0.16</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="11">
         <v>958</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8">
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11">
         <v>24</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="11">
         <v>0.72</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="11">
         <v>0.21</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="11">
         <v>0.32</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="11">
         <v>165</v>
       </c>
-      <c r="J32" s="8">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
         <v>24</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="11">
         <v>0.48</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="11">
         <v>0.1</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="11">
         <v>0.16</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="11">
         <v>165</v>
       </c>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11">
         <v>25</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="11">
         <v>0.67</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="11">
         <v>0.46</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="11">
         <v>312</v>
       </c>
-      <c r="J33" s="8">
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11">
         <v>25</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="11">
         <v>0.59</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="11">
         <v>0.48</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="11">
         <v>0.53</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="11">
         <v>312</v>
       </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11">
         <v>26</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="11">
         <v>0.68</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="11">
         <v>0.41</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="11">
         <v>0.51</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="11">
         <v>763</v>
       </c>
-      <c r="J34" s="8">
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11">
         <v>26</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="11">
         <v>0.6</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="11">
         <v>0.26</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="11">
         <v>0.37</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="11">
         <v>763</v>
       </c>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="8">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11">
         <v>27</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="11">
         <v>0.67</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="11">
         <v>0.4</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="11">
         <v>0.5</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="11">
         <v>700</v>
       </c>
-      <c r="J35" s="8">
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11">
         <v>27</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="11">
         <v>0.52</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="11">
         <v>0.32</v>
       </c>
-      <c r="M35" s="8">
+      <c r="M35" s="11">
         <v>0.4</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="11">
         <v>700</v>
       </c>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="8">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
         <v>0.59</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="11">
         <v>34364</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M37" s="8">
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11">
         <v>0.51</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="11">
         <v>34364</v>
       </c>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>0.5</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="11">
         <v>0.52</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="11">
         <v>34364</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="11">
         <v>0.54</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L38" s="11">
         <v>0.32</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="11">
         <v>0.37</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="11">
         <v>34364</v>
       </c>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="12">
         <v>0.61</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="11">
         <v>0.59</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="11">
         <v>0.59</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="11">
         <v>34364</v>
       </c>
-      <c r="I39" t="s">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="11">
         <v>0.51</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="11">
         <v>0.51</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="11">
         <v>0.46</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="11">
         <v>34364</v>
       </c>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
     </row>
     <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="8">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11">
         <v>0.72081247817483396</v>
       </c>
-      <c r="I43" t="s">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="11">
         <v>0.51521940466232397</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="8">
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11">
         <v>0.72081247817483396</v>
       </c>
-      <c r="I44" t="s">
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P44" s="8">
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11">
         <v>0.62719706669770603</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="8">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11">
         <v>0.73241701335358</v>
       </c>
-      <c r="I45" t="s">
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P45" s="8">
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11">
         <v>0.673675858005928</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="11">
         <v>0.72335866739475496</v>
       </c>
-      <c r="I46" t="s">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="8">
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11">
         <v>0.62950626069214</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="11">
         <v>0.70629159436521305</v>
       </c>
-      <c r="I47" t="s">
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="P47" s="8">
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11">
         <v>0.60365558490592097</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="8" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="8">
-        <v>0</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11">
+        <v>0</v>
+      </c>
+      <c r="C50" s="11">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="11">
         <v>0.72</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="11">
         <v>0.63</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="11">
         <v>3816</v>
       </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="K50" s="8">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11">
+        <v>0</v>
+      </c>
+      <c r="K50" s="11">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L50" s="11">
         <v>0.46</v>
       </c>
-      <c r="M50" s="8">
+      <c r="M50" s="11">
         <v>0.5</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="11">
         <v>3816</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="8">
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11">
         <v>1</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="11">
         <v>0.67</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="11">
         <v>0.77</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="11">
         <v>0.72</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="11">
         <v>7745</v>
       </c>
-      <c r="J51" s="8">
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11">
         <v>1</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="11">
         <v>0.69</v>
       </c>
-      <c r="L51" s="8">
+      <c r="L51" s="11">
         <v>0.5</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M51" s="11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="11">
         <v>7745</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="8">
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11">
         <v>2</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="11">
         <v>0.71</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="11">
         <v>0.66</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="11">
         <v>0.69</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="11">
         <v>11029</v>
       </c>
-      <c r="J52" s="8">
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11">
         <v>2</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="11">
         <v>0.51</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="11">
         <v>0.79</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M52" s="11">
         <v>0.62</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="11">
         <v>11029</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8">
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11">
         <v>3</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="11">
         <v>0.84</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="11">
         <v>0.74</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="11">
         <v>0.79</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="11">
         <v>11774</v>
       </c>
-      <c r="J53" s="8">
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11">
         <v>3</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="11">
         <v>0.86</v>
       </c>
-      <c r="L53" s="8">
+      <c r="L53" s="11">
         <v>0.61</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="11">
         <v>0.71</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="11">
         <v>11774</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="8" t="s">
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="8">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11">
         <v>0.72</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="11">
         <v>34364</v>
       </c>
-      <c r="J55" s="8" t="s">
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M55" s="8">
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11">
         <v>0.63</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="11">
         <v>34364</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="8" t="s">
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="11">
         <v>0.7</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="11">
         <v>0.72</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="11">
         <v>0.71</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="11">
         <v>34364</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="11">
         <v>0.65</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L56" s="11">
         <v>0.59</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="11">
         <v>0.6</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="11">
         <v>34364</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="11">
         <v>0.73</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="11">
         <v>0.72</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="11">
         <v>0.72</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="11">
         <v>34364</v>
       </c>
-      <c r="I57" t="s">
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="11">
         <v>0.67</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="11">
         <v>0.63</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="11">
         <v>0.63</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="11">
         <v>34364</v>
       </c>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini Project 1/performance.xlsx
+++ b/Mini Project 1/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Documents\GitHub\COMP472\Mini Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E827C-0772-4DC2-8184-8DAF87C53433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F85B07-3F3A-4A17-A72E-FF6A44E772C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
   </bookViews>
   <sheets>
     <sheet name="MNB" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="48">
   <si>
     <t>precision</t>
   </si>
@@ -138,9 +138,6 @@
     <t>80% training/20% testing</t>
   </si>
   <si>
-    <t>95% training/5% testing</t>
-  </si>
-  <si>
     <t>Best</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>MLP Grid Seacrh CV</t>
+  </si>
+  <si>
+    <t>50% training/50% testing</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -278,17 +278,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -298,17 +298,20 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -659,7 +662,9 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -671,8 +676,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>42</v>
+      <c r="A1" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -685,7 +690,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -2844,7 +2849,7 @@
     <mergeCell ref="A42:U42"/>
   </mergeCells>
   <conditionalFormatting sqref="R43:U1048576 R2:U41">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2860,8 +2865,8 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W20" sqref="W19:W20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,8 +2880,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>43</v>
+      <c r="A1" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2891,7 +2896,7 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -5123,7 +5128,7 @@
     <mergeCell ref="A42:U42"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:U41 R43:U1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5139,8 +5144,8 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:S37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5149,11 +5154,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
@@ -5163,7 +5168,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -7577,7 +7582,7 @@
     <mergeCell ref="A42:U42"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:U41 R43:U1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7593,8 +7598,8 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7605,10 +7610,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -7620,7 +7625,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -9948,7 +9953,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:U41 R43:U1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9964,8 +9969,8 @@
   </sheetPr>
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9976,10 +9981,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -9991,7 +9996,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -12342,7 +12347,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="Q2:U41 Q43:U1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12359,7 +12364,7 @@
   <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="I2" sqref="I2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12369,10 +12374,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -12384,7 +12389,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -12396,77 +12401,107 @@
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B3" s="7">
+        <v>0.42134210219997598</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J3" s="7">
+        <v>0.41028983820276999</v>
+      </c>
       <c r="Q3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R3">
         <f>J3-B3</f>
-        <v>0</v>
+        <v>-1.1052263997205991E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.42134210219997598</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J4" s="7">
+        <v>0.41028983820276999</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4">
         <f t="shared" ref="R4:R7" si="0">J4-B4</f>
-        <v>0</v>
+        <v>-1.1052263997205991E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.367309226146176</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J5" s="7">
+        <v>0.33218388717788799</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.5125338968288011E-2</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.34012780840045298</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J6" s="7">
+        <v>0.316988532145006</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.3139276255446983E-2</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.20185548317435401</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="J7" s="7">
+        <v>0.17756888320379899</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.4286599970555017E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -12524,34 +12559,70 @@
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="C10" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2120</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="K10" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="N10" s="7">
+        <v>5187</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10">
         <f>K10-C10</f>
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="S10">
         <f t="shared" ref="S10:U25" si="1">L10-D10</f>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4.9999999999999989E-2</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1226</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -12559,28 +12630,52 @@
       <c r="J11">
         <v>1</v>
       </c>
+      <c r="K11" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3083</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11">
         <f t="shared" ref="R11:U36" si="2">K11-C11</f>
-        <v>0</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.9999999999999916E-2</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1075</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -12588,28 +12683,52 @@
       <c r="J12">
         <v>2</v>
       </c>
+      <c r="K12" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="L12" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2664</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2.9999999999999971E-2</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="T12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13">
         <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1586</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -12617,28 +12736,52 @@
       <c r="J13">
         <v>3</v>
       </c>
+      <c r="K13" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4114</v>
+      </c>
       <c r="Q13" s="4"/>
       <c r="R13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="T13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.9999999999999994E-2</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14">
         <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2277</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -12646,28 +12789,52 @@
       <c r="J14">
         <v>4</v>
       </c>
+      <c r="K14" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M14" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5673</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.9999999999999971E-2</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.0000000000000006E-2</v>
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.9999999999999994E-2</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15">
         <v>5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>735</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -12675,28 +12842,52 @@
       <c r="J15">
         <v>5</v>
       </c>
+      <c r="K15" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1744</v>
+      </c>
       <c r="Q15" s="4"/>
       <c r="R15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>6</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F16" s="7">
+        <v>953</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -12704,10 +12895,22 @@
       <c r="J16">
         <v>6</v>
       </c>
+      <c r="K16" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="L16" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2430</v>
+      </c>
       <c r="Q16" s="4"/>
       <c r="R16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
@@ -12715,17 +12918,29 @@
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-9.999999999999995E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1162</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -12733,28 +12948,52 @@
       <c r="J17">
         <v>7</v>
       </c>
+      <c r="K17" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2941</v>
+      </c>
       <c r="Q17" s="4"/>
       <c r="R17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="T17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>8</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F18" s="7">
+        <v>428</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -12762,28 +13001,52 @@
       <c r="J18">
         <v>8</v>
       </c>
+      <c r="K18" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1028</v>
+      </c>
       <c r="Q18" s="4"/>
       <c r="R18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="T18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>9</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>949</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -12791,6 +13054,18 @@
       <c r="J19">
         <v>9</v>
       </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2312</v>
+      </c>
       <c r="Q19" s="4"/>
       <c r="R19">
         <f t="shared" si="2"/>
@@ -12806,13 +13081,25 @@
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1576</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -12820,28 +13107,52 @@
       <c r="J20">
         <v>10</v>
       </c>
+      <c r="K20" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="N20" s="7">
+        <v>3863</v>
+      </c>
       <c r="Q20" s="4"/>
       <c r="R20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4.9999999999999996E-2</v>
       </c>
       <c r="T20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>11</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F21" s="7">
+        <v>620</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -12849,6 +13160,18 @@
       <c r="J21">
         <v>11</v>
       </c>
+      <c r="K21" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1443</v>
+      </c>
       <c r="Q21" s="4"/>
       <c r="R21">
         <f t="shared" si="2"/>
@@ -12856,21 +13179,33 @@
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="T21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>12</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="7">
+        <v>292</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -12878,10 +13213,22 @@
       <c r="J22">
         <v>12</v>
       </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>754</v>
+      </c>
       <c r="Q22" s="4"/>
       <c r="R22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
@@ -12889,17 +13236,29 @@
       </c>
       <c r="T22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23">
         <v>13</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F23" s="7">
+        <v>590</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -12907,28 +13266,52 @@
       <c r="J23">
         <v>13</v>
       </c>
+      <c r="K23" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1519</v>
+      </c>
       <c r="Q23" s="4"/>
       <c r="R23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="T23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>929</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24">
         <v>14</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F24" s="7">
+        <v>358</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -12936,28 +13319,52 @@
       <c r="J24">
         <v>14</v>
       </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>885</v>
+      </c>
       <c r="Q24" s="4"/>
       <c r="R24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.44</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="T24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>15</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1435</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -12965,14 +13372,26 @@
       <c r="J25">
         <v>15</v>
       </c>
+      <c r="K25" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3546</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="T25">
         <f t="shared" si="1"/>
@@ -12980,13 +13399,25 @@
       </c>
       <c r="U25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>76</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -12994,6 +13425,18 @@
       <c r="J26">
         <v>16</v>
       </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>183</v>
+      </c>
       <c r="Q26" s="4"/>
       <c r="R26">
         <f t="shared" si="2"/>
@@ -13009,13 +13452,25 @@
       </c>
       <c r="U26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>17</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="F27" s="7">
+        <v>844</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -13023,28 +13478,52 @@
       <c r="J27">
         <v>17</v>
       </c>
+      <c r="K27" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2161</v>
+      </c>
       <c r="Q27" s="4"/>
       <c r="R27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.999999999999998E-2</v>
       </c>
       <c r="S27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="T27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="U27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>18</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1027</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -13052,6 +13531,18 @@
       <c r="J28">
         <v>18</v>
       </c>
+      <c r="K28" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2505</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28">
         <f t="shared" si="2"/>
@@ -13067,13 +13558,25 @@
       </c>
       <c r="U28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>19</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>138</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -13081,6 +13584,18 @@
       <c r="J29">
         <v>19</v>
       </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>407</v>
+      </c>
       <c r="Q29" s="4"/>
       <c r="R29">
         <f t="shared" si="2"/>
@@ -13096,13 +13611,25 @@
       </c>
       <c r="U29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>20</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F30" s="7">
+        <v>11027</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -13110,14 +13637,26 @@
       <c r="J30">
         <v>20</v>
       </c>
+      <c r="K30" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N30" s="7">
+        <v>27658</v>
+      </c>
       <c r="Q30" s="4"/>
       <c r="R30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-9.9999999999999534E-3</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
@@ -13125,13 +13664,25 @@
       </c>
       <c r="U30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16631</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>21</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="7">
+        <v>924</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -13139,6 +13690,18 @@
       <c r="J31">
         <v>21</v>
       </c>
+      <c r="K31" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2316</v>
+      </c>
       <c r="Q31" s="4"/>
       <c r="R31">
         <f t="shared" si="2"/>
@@ -13146,21 +13709,33 @@
       </c>
       <c r="S31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4.0000000000000008E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2.9999999999999971E-2</v>
       </c>
       <c r="U31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>22</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>132</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -13168,6 +13743,18 @@
       <c r="J32">
         <v>22</v>
       </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>350</v>
+      </c>
       <c r="Q32" s="4"/>
       <c r="R32">
         <f t="shared" si="2"/>
@@ -13183,13 +13770,25 @@
       </c>
       <c r="U32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33">
         <v>23</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>946</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -13197,6 +13796,18 @@
       <c r="J33">
         <v>23</v>
       </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2328</v>
+      </c>
       <c r="Q33" s="4"/>
       <c r="R33">
         <f t="shared" si="2"/>
@@ -13212,13 +13823,25 @@
       </c>
       <c r="U33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34">
         <v>24</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>161</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -13226,6 +13849,18 @@
       <c r="J34">
         <v>24</v>
       </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>400</v>
+      </c>
       <c r="Q34" s="4"/>
       <c r="R34">
         <f t="shared" si="2"/>
@@ -13241,13 +13876,25 @@
       </c>
       <c r="U34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>25</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F35" s="7">
+        <v>280</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -13255,28 +13902,52 @@
       <c r="J35">
         <v>25</v>
       </c>
+      <c r="K35" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N35" s="7">
+        <v>769</v>
+      </c>
       <c r="Q35" s="4"/>
       <c r="R35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="S35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="T35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="U35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>26</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F36" s="7">
+        <v>753</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -13284,28 +13955,52 @@
       <c r="J36">
         <v>26</v>
       </c>
+      <c r="K36" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1941</v>
+      </c>
       <c r="Q36" s="4"/>
       <c r="R36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="T36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="U36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>27</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="F37" s="7">
+        <v>674</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -13313,43 +14008,75 @@
       <c r="J37">
         <v>27</v>
       </c>
+      <c r="K37" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1706</v>
+      </c>
       <c r="Q37" s="4"/>
       <c r="R37">
         <f>K37-C37</f>
-        <v>0</v>
+        <v>-9.9999999999999978E-2</v>
       </c>
       <c r="S37">
         <f t="shared" ref="S37:U37" si="3">L37-D37</f>
-        <v>0</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="T37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="U37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="1"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>4</v>
       </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F39" s="7">
+        <v>34364</v>
+      </c>
       <c r="J39" t="s">
         <v>4</v>
       </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="N39" s="7">
+        <v>85910</v>
+      </c>
       <c r="R39">
         <f t="shared" ref="R39:R41" si="4">K39-C39</f>
         <v>0</v>
@@ -13360,59 +14087,107 @@
       </c>
       <c r="T39">
         <f t="shared" ref="T39:T41" si="6">M39-E39</f>
-        <v>0</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="U39">
         <f t="shared" ref="U39:U41" si="7">N39-F39</f>
-        <v>0</v>
+        <v>51546</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>5</v>
       </c>
+      <c r="C40" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>34364</v>
+      </c>
       <c r="J40" t="s">
         <v>5</v>
       </c>
+      <c r="K40" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="N40" s="7">
+        <v>85910</v>
+      </c>
       <c r="R40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-8.0000000000000016E-2</v>
       </c>
       <c r="S40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1.999999999999999E-2</v>
       </c>
       <c r="T40">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>51546</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C41" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F41" s="7">
+        <v>34364</v>
+      </c>
       <c r="J41" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="K41" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="N41" s="7">
+        <v>85910</v>
+      </c>
       <c r="R41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-3.999999999999998E-2</v>
       </c>
       <c r="S41">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="T41">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>51546</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -13442,11 +14217,17 @@
       <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B43" s="7">
+        <v>0.55426609242230196</v>
+      </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="J43" s="7">
+        <v>0.55426609242230196</v>
+      </c>
       <c r="Q43" s="4"/>
       <c r="R43">
         <f>J43-B43</f>
@@ -13456,12 +14237,18 @@
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.55426609242230196</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="J44" s="7">
+        <v>0.55426609242230196</v>
+      </c>
       <c r="Q44" s="4"/>
       <c r="R44">
         <f t="shared" ref="R44:R47" si="8">J44-B44</f>
@@ -13471,12 +14258,18 @@
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.55194180454297903</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J45" s="7">
+        <v>0.55194180454297903</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="Q45" s="4"/>
       <c r="R45">
@@ -13488,11 +14281,17 @@
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B46" s="7">
+        <v>0.54986246240946002</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J46" s="7">
+        <v>0.54986246240946002</v>
+      </c>
       <c r="Q46" s="4"/>
       <c r="R46">
         <f t="shared" si="8"/>
@@ -13502,11 +14301,17 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.50642925529137395</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.50642925529137395</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47">
@@ -13557,16 +14362,42 @@
       <c r="B50">
         <v>0</v>
       </c>
+      <c r="C50" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F50" s="7">
+        <v>9405</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="1"/>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="M50" s="7">
+        <v>9405</v>
+      </c>
       <c r="Q50" s="4"/>
       <c r="R50">
-        <f t="shared" ref="R50:U53" si="9">K50-C50</f>
+        <f>J50-C50</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="S50:U50" si="9">K50-D50</f>
         <v>0</v>
       </c>
       <c r="T50">
@@ -13583,24 +14414,50 @@
       <c r="B51">
         <v>1</v>
       </c>
+      <c r="C51" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F51" s="7">
+        <v>19335</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="1"/>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="M51" s="7">
+        <v>19335</v>
+      </c>
       <c r="Q51" s="4"/>
       <c r="R51">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="R51:R53" si="10">J51-C51</f>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="S51:S53" si="11">K51-D51</f>
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="T51:T53" si="12">L51-E51</f>
         <v>0</v>
       </c>
       <c r="U51">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="U51:U53" si="13">M51-F51</f>
         <v>0</v>
       </c>
     </row>
@@ -13609,24 +14466,50 @@
       <c r="B52">
         <v>2</v>
       </c>
+      <c r="C52" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="F52" s="7">
+        <v>27658</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="1"/>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="M52" s="7">
+        <v>27658</v>
+      </c>
       <c r="Q52" s="4"/>
       <c r="R52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13635,32 +14518,66 @@
       <c r="B53">
         <v>3</v>
       </c>
+      <c r="C53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="F53" s="7">
+        <v>29512</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="1"/>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="M53" s="7">
+        <v>29512</v>
+      </c>
       <c r="Q53" s="4"/>
       <c r="R53">
-        <f>K53-C53</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="1"/>
+      <c r="I54"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
       <c r="Q54" s="4"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
@@ -13668,16 +14585,32 @@
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E55" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F55" s="7">
+        <v>85910</v>
+      </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M55" s="7">
+        <v>85910</v>
+      </c>
       <c r="Q55" s="4"/>
       <c r="T55">
-        <f t="shared" ref="T55:U57" si="10">M55-E55</f>
+        <f>L55-E55</f>
         <v>0</v>
       </c>
       <c r="U55">
-        <f t="shared" si="10"/>
+        <f>M55-F55</f>
         <v>0</v>
       </c>
     </row>
@@ -13686,24 +14619,50 @@
       <c r="B56" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C56" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="F56" s="7">
+        <v>85910</v>
+      </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="M56" s="7">
+        <v>85910</v>
+      </c>
       <c r="Q56" s="4"/>
       <c r="R56">
-        <f>K56-C56</f>
+        <f t="shared" ref="R56:R57" si="14">J56-C56</f>
         <v>0</v>
       </c>
       <c r="S56">
-        <f>L56-D56</f>
+        <f t="shared" ref="S56:S57" si="15">K56-D56</f>
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="T56:T57" si="16">L56-E56</f>
         <v>0</v>
       </c>
       <c r="U56">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U56:U57" si="17">M56-F56</f>
         <v>0</v>
       </c>
     </row>
@@ -13712,24 +14671,50 @@
       <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F57" s="7">
+        <v>85910</v>
+      </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M57" s="7">
+        <v>85910</v>
+      </c>
       <c r="Q57" s="4"/>
       <c r="R57">
-        <f t="shared" ref="R57:S57" si="11">K57-C57</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -13788,6 +14773,11 @@
     <mergeCell ref="A42:U42"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <conditionalFormatting sqref="R1:U1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -13798,2060 +14788,1747 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P58"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="7"/>
-    <col min="10" max="14" width="9.140625" style="7"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7">
+        <v>0.42134210219997598</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.42134210219997598</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.41028983820276999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.367309226146176</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.33218388717788799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.34012780840045298</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.316988532145006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.20185548317435401</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.17756888320379899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2120</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1226</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1075</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="L10" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1586</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2277</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M12" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>735</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F14" s="7">
+        <v>953</v>
+      </c>
+      <c r="J14" s="7">
+        <v>6</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="L14" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1162</v>
+      </c>
+      <c r="J15" s="7">
+        <v>7</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="F16" s="7">
+        <v>428</v>
+      </c>
+      <c r="J16" s="7">
+        <v>8</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>949</v>
+      </c>
+      <c r="J17" s="7">
+        <v>9</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1576</v>
+      </c>
+      <c r="J18" s="7">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F19" s="7">
+        <v>620</v>
+      </c>
+      <c r="J19" s="7">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="7">
+        <v>292</v>
+      </c>
+      <c r="J20" s="7">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F21" s="7">
+        <v>590</v>
+      </c>
+      <c r="J21" s="7">
+        <v>13</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F22" s="7">
+        <v>358</v>
+      </c>
+      <c r="J22" s="7">
+        <v>14</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="7">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1435</v>
+      </c>
+      <c r="J23" s="7">
+        <v>15</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>76</v>
+      </c>
+      <c r="J24" s="7">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="F25" s="7">
+        <v>844</v>
+      </c>
+      <c r="J25" s="7">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1027</v>
+      </c>
+      <c r="J26" s="7">
+        <v>18</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>138</v>
+      </c>
+      <c r="J27" s="7">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="7">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F28" s="7">
+        <v>11027</v>
+      </c>
+      <c r="J28" s="7">
+        <v>20</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N28" s="7">
+        <v>27658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="7">
+        <v>924</v>
+      </c>
+      <c r="J29" s="7">
+        <v>21</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>132</v>
+      </c>
+      <c r="J30" s="7">
+        <v>22</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="7">
+        <v>23</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>946</v>
+      </c>
+      <c r="J31" s="7">
+        <v>23</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="7">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>161</v>
+      </c>
+      <c r="J32" s="7">
+        <v>24</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="7">
+        <v>25</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F33" s="7">
+        <v>280</v>
+      </c>
+      <c r="J33" s="7">
+        <v>25</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N33" s="7">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="7">
+        <v>26</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F34" s="7">
+        <v>753</v>
+      </c>
+      <c r="J34" s="7">
+        <v>26</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="7">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="F35" s="7">
+        <v>674</v>
+      </c>
+      <c r="J35" s="7">
+        <v>27</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N35" s="7">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="F37" s="7">
+        <v>34364</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="N37" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="7">
+        <v>34364</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="N38" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="F39" s="7">
+        <v>34364</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="N39" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10">
-        <v>0.59469211966010904</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="10">
-        <v>0.40446395130688401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="F44" s="7">
+        <v>0.55426609242230196</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="J44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="K44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10">
-        <v>0.59469211966010904</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="N44" s="7">
+        <v>0.55426609242230196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.55194180454297903</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0.55194180454297903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.54986246240946002</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0.54986246240946002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.50642925529137395</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.50642925529137395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="S49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F50" s="7">
+        <v>9405</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="N50" s="7">
+        <v>9405</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F51" s="7">
+        <v>19335</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="N51" s="7">
+        <v>19335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="7">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="F52" s="7">
+        <v>27658</v>
+      </c>
+      <c r="J52" s="7">
+        <v>2</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="N52" s="7">
+        <v>27658</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="F53" s="7">
+        <v>29512</v>
+      </c>
+      <c r="J53" s="7">
+        <v>3</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="N53" s="7">
+        <v>29512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D55" s="7">
+        <v>85910</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N55" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="F56" s="7">
+        <v>85910</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="N56" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F57" s="7">
+        <v>85910</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N57" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J63" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10">
-        <v>0.50552904202071902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="M63" s="7">
+        <v>0.55426609242230196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J64" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="K64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="L64" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="M64" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
-        <v>0.61184786403312497</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="N64" s="7">
+        <v>0.55194180454297903</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="M65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="N65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10">
-        <v>0.51040116446962802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="O65" s="7">
+        <v>0.54986246240946002</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J66" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="K66" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="L66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="N66" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="10">
-        <v>0.591520708979835</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10">
-        <v>0.46447510370878298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.51684703580818603</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10">
-        <v>0.37100431754569302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="F8" s="10">
-        <v>2101</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10">
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N8" s="10">
-        <v>2101</v>
-      </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1255</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="N9" s="10">
-        <v>1255</v>
-      </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1022</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0.33</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0.39</v>
-      </c>
-      <c r="N10" s="10">
-        <v>1022</v>
-      </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1682</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1682</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2208</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10">
-        <v>4</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0.27</v>
-      </c>
-      <c r="N12" s="10">
-        <v>2208</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="10">
-        <v>691</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10">
-        <v>5</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="N13" s="10">
-        <v>691</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="F14" s="10">
-        <v>986</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10">
-        <v>6</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0.31</v>
-      </c>
-      <c r="N14" s="10">
-        <v>986</v>
-      </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10">
-        <v>7</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1172</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10">
-        <v>7</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="N15" s="10">
-        <v>1172</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="F16" s="10">
-        <v>420</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10">
-        <v>8</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="N16" s="10">
-        <v>420</v>
-      </c>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10">
-        <v>9</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="F17" s="10">
-        <v>990</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10">
-        <v>9</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="N17" s="10">
-        <v>990</v>
-      </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10">
-        <v>10</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1512</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10">
-        <v>10</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N18" s="10">
-        <v>1512</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="F19" s="10">
-        <v>597</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10">
-        <v>11</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0.33</v>
-      </c>
-      <c r="N19" s="10">
-        <v>597</v>
-      </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.41</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="F20" s="10">
-        <v>289</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10">
-        <v>12</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N20" s="10">
-        <v>289</v>
-      </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10">
-        <v>13</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="F21" s="10">
-        <v>594</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10">
-        <v>13</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N21" s="10">
-        <v>594</v>
-      </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.61</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="F22" s="10">
-        <v>332</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10">
-        <v>14</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="L22" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="N22" s="10">
-        <v>332</v>
-      </c>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1386</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10">
-        <v>15</v>
-      </c>
-      <c r="K23" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="N23" s="10">
-        <v>1386</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10">
-        <v>16</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.41</v>
-      </c>
-      <c r="F24" s="10">
-        <v>76</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10">
-        <v>16</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="N24" s="10">
-        <v>76</v>
-      </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10">
-        <v>17</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.61</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="F25" s="10">
-        <v>857</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10">
-        <v>17</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="N25" s="10">
-        <v>857</v>
-      </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10">
-        <v>18</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.77</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.73</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1047</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10">
-        <v>18</v>
-      </c>
-      <c r="K26" s="10">
-        <v>0.73</v>
-      </c>
-      <c r="L26" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="N26" s="10">
-        <v>1047</v>
-      </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10">
-        <v>19</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="F27" s="10">
-        <v>170</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10">
-        <v>19</v>
-      </c>
-      <c r="K27" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="N27" s="10">
-        <v>170</v>
-      </c>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10">
-        <v>20</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.68</v>
-      </c>
-      <c r="F28" s="10">
-        <v>11029</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10">
-        <v>20</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0.61</v>
-      </c>
-      <c r="N28" s="10">
-        <v>11029</v>
-      </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10">
-        <v>21</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.39</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.49</v>
-      </c>
-      <c r="F29" s="10">
-        <v>921</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10">
-        <v>21</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0.61</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="N29" s="10">
-        <v>921</v>
-      </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10">
-        <v>22</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.27</v>
-      </c>
-      <c r="F30" s="10">
-        <v>129</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10">
-        <v>22</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="M30" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="N30" s="10">
-        <v>129</v>
-      </c>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10">
-        <v>23</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.33</v>
-      </c>
-      <c r="F31" s="10">
-        <v>958</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10">
-        <v>23</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0.47</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="N31" s="10">
-        <v>958</v>
-      </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10">
-        <v>24</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="F32" s="10">
-        <v>165</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10">
-        <v>24</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="L32" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="N32" s="10">
-        <v>165</v>
-      </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10">
-        <v>25</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F33" s="10">
-        <v>312</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10">
-        <v>25</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="L33" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="N33" s="10">
-        <v>312</v>
-      </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10">
-        <v>26</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.68</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.41</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="F34" s="10">
-        <v>763</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10">
-        <v>26</v>
-      </c>
-      <c r="K34" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="N34" s="10">
-        <v>763</v>
-      </c>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10">
-        <v>27</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="10">
-        <v>700</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10">
-        <v>27</v>
-      </c>
-      <c r="K35" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="N35" s="10">
-        <v>700</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="F37" s="10">
-        <v>34364</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="N37" s="10">
-        <v>34364</v>
-      </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.52</v>
-      </c>
-      <c r="F38" s="10">
-        <v>34364</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K38" s="10">
-        <v>0.54</v>
-      </c>
-      <c r="L38" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="M38" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="N38" s="10">
-        <v>34364</v>
-      </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="11">
-        <v>0.61</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="F39" s="10">
-        <v>34364</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="L39" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="M39" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="N39" s="10">
-        <v>34364</v>
-      </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10">
-        <v>0.72081247817483396</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P43" s="10">
-        <v>0.51521940466232397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10">
-        <v>0.72081247817483396</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10">
-        <v>0.62719706669770603</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10">
-        <v>0.73241701335358</v>
-      </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10">
-        <v>0.673675858005928</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0.72335866739475496</v>
-      </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10">
-        <v>0.62950626069214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0.70629159436521305</v>
-      </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10">
-        <v>0.60365558490592097</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10">
-        <v>0</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="F50" s="10">
-        <v>3816</v>
-      </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10">
-        <v>0</v>
-      </c>
-      <c r="K50" s="10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L50" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="M50" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N50" s="10">
-        <v>3816</v>
-      </c>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10">
-        <v>1</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0.77</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="F51" s="10">
-        <v>7745</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10">
-        <v>1</v>
-      </c>
-      <c r="K51" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="L51" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="M51" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N51" s="10">
-        <v>7745</v>
-      </c>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10">
-        <v>2</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0.69</v>
-      </c>
-      <c r="F52" s="10">
-        <v>11029</v>
-      </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10">
-        <v>2</v>
-      </c>
-      <c r="K52" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="L52" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="M52" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="N52" s="10">
-        <v>11029</v>
-      </c>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10">
-        <v>3</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0.84</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0.74</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0.79</v>
-      </c>
-      <c r="F53" s="10">
-        <v>11774</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10">
-        <v>3</v>
-      </c>
-      <c r="K53" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="L53" s="10">
-        <v>0.61</v>
-      </c>
-      <c r="M53" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="N53" s="10">
-        <v>11774</v>
-      </c>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="F55" s="10">
-        <v>34364</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="N55" s="10">
-        <v>34364</v>
-      </c>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="E56" s="10">
-        <v>0.71</v>
-      </c>
-      <c r="F56" s="10">
-        <v>34364</v>
-      </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K56" s="10">
-        <v>0.65</v>
-      </c>
-      <c r="L56" s="10">
-        <v>0.59</v>
-      </c>
-      <c r="M56" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="N56" s="10">
-        <v>34364</v>
-      </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="10">
-        <v>0.73</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="F57" s="10">
-        <v>34364</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="L57" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="M57" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="N57" s="10">
-        <v>34364</v>
-      </c>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="O66" s="7">
+        <v>0.50642925529137395</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mini Project 1/performance.xlsx
+++ b/Mini Project 1/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Documents\GitHub\COMP472\Mini Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F85B07-3F3A-4A17-A72E-FF6A44E772C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B5BEC-4CC0-43DA-8632-B455C6D9F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="5" activeTab="6" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
   </bookViews>
   <sheets>
     <sheet name="MNB" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,10 @@
     <sheet name="MNB Grid" sheetId="4" r:id="rId4"/>
     <sheet name="DT Grid" sheetId="5" r:id="rId5"/>
     <sheet name="MLP Grid" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="MLP Embedding" sheetId="8" r:id="rId7"/>
+    <sheet name="MLP Twitter Embedding" sheetId="10" r:id="rId8"/>
+    <sheet name="MLP Wiki " sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="56">
   <si>
     <t>precision</t>
   </si>
@@ -132,9 +135,6 @@
     <t>(Macro)</t>
   </si>
   <si>
-    <t>Sentiment:</t>
-  </si>
-  <si>
     <t>80% training/20% testing</t>
   </si>
   <si>
@@ -162,12 +162,6 @@
     <t>min_samples_split=5),</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>MNB</t>
   </si>
   <si>
@@ -187,6 +181,39 @@
   </si>
   <si>
     <t>50% training/50% testing</t>
+  </si>
+  <si>
+    <t>Emotions:</t>
+  </si>
+  <si>
+    <t>Accuracy:</t>
+  </si>
+  <si>
+    <t>(Weighted):</t>
+  </si>
+  <si>
+    <t>(Macro):</t>
+  </si>
+  <si>
+    <t>MLP Embedding</t>
+  </si>
+  <si>
+    <t>Sentiments:</t>
+  </si>
+  <si>
+    <t>MLP Grid Search CV Embedding</t>
+  </si>
+  <si>
+    <t>MLP Twitter Embedding</t>
+  </si>
+  <si>
+    <t>MLP Wiki Grid Embedding</t>
+  </si>
+  <si>
+    <t>MLP Wiki Embedding</t>
+  </si>
+  <si>
+    <t>MLP Grid Twitter Embedding</t>
   </si>
 </sst>
 </file>
@@ -254,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -291,6 +318,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -304,7 +337,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -662,7 +702,7 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:N2"/>
     </sheetView>
   </sheetViews>
@@ -677,26 +717,26 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2369,27 +2409,27 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -2849,12 +2889,1726 @@
     <mergeCell ref="A42:U42"/>
   </mergeCells>
   <conditionalFormatting sqref="R43:U1048576 R2:U41">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ED07CC-E145-478C-B12F-90A0EF61E9DE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F57" sqref="C50:F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7">
+        <v>0.406511167409219</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.406511167409219</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.41028983820276999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.38178934998478398</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.33218388717788799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.311667549983496</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.316988532145006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.17423879744201101</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.17756888320379899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2128</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1251</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1032</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="L10" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1707</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="N11" s="7">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2220</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M12" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>678</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="7">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1006</v>
+      </c>
+      <c r="J14" s="7">
+        <v>6</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="L14" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1177</v>
+      </c>
+      <c r="J15" s="7">
+        <v>7</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F16" s="7">
+        <v>419</v>
+      </c>
+      <c r="J16" s="7">
+        <v>8</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F17" s="7">
+        <v>963</v>
+      </c>
+      <c r="J17" s="7">
+        <v>9</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="E18" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1557</v>
+      </c>
+      <c r="J18" s="7">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="7">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="D19" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="7">
+        <v>551</v>
+      </c>
+      <c r="J19" s="7">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>320</v>
+      </c>
+      <c r="J20" s="7">
+        <v>12</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="F21" s="7">
+        <v>581</v>
+      </c>
+      <c r="J21" s="7">
+        <v>13</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="F22" s="7">
+        <v>337</v>
+      </c>
+      <c r="J22" s="7">
+        <v>14</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="7">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1435</v>
+      </c>
+      <c r="J23" s="7">
+        <v>15</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>70</v>
+      </c>
+      <c r="J24" s="7">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="7">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F25" s="7">
+        <v>832</v>
+      </c>
+      <c r="J25" s="7">
+        <v>17</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1023</v>
+      </c>
+      <c r="J26" s="7">
+        <v>18</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>157</v>
+      </c>
+      <c r="J27" s="7">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="7">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F28" s="7">
+        <v>11086</v>
+      </c>
+      <c r="J28" s="7">
+        <v>20</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N28" s="7">
+        <v>27658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F29" s="7">
+        <v>901</v>
+      </c>
+      <c r="J29" s="7">
+        <v>21</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="7">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>128</v>
+      </c>
+      <c r="J30" s="7">
+        <v>22</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="7">
+        <v>23</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>895</v>
+      </c>
+      <c r="J31" s="7">
+        <v>23</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="7">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>165</v>
+      </c>
+      <c r="J32" s="7">
+        <v>24</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="7">
+        <v>25</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F33" s="7">
+        <v>324</v>
+      </c>
+      <c r="J33" s="7">
+        <v>25</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="N33" s="7">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="7">
+        <v>26</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="F34" s="7">
+        <v>732</v>
+      </c>
+      <c r="J34" s="7">
+        <v>26</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="7">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F35" s="7">
+        <v>666</v>
+      </c>
+      <c r="J35" s="7">
+        <v>27</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N35" s="7">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="D37" s="7">
+        <v>34341</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="N37" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="G38" s="7">
+        <v>34341</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="N38" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F39" s="7">
+        <v>34341</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="N39" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0.53682187472700205</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.53682187472700205</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0.55426609242230196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0.53608626594445996</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0.55194180454297903</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0.52091505764034796</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0.54986246240946002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0.46353796990663199</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.50642925529137395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="S49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="F50" s="7">
+        <v>3744</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="N50" s="7">
+        <v>9405</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="F51" s="7">
+        <v>7750</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="N51" s="7">
+        <v>19335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="7">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="F52" s="7">
+        <v>11086</v>
+      </c>
+      <c r="J52" s="7">
+        <v>2</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="N52" s="7">
+        <v>27658</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0.68</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F53" s="7">
+        <v>11761</v>
+      </c>
+      <c r="J53" s="7">
+        <v>3</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="N53" s="7">
+        <v>29512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="F55" s="7">
+        <v>34341</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N55" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="F56" s="7">
+        <v>34341</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="N56" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="F57" s="7">
+        <v>34341</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N57" s="7">
+        <v>85910</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J63" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0.55426609242230196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J64" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0.55194180454297903</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0.54986246240946002</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J66" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0.50642925529137395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2881,28 +4635,28 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="I2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -4620,27 +6374,27 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -5128,7 +6882,7 @@
     <mergeCell ref="A42:U42"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:U41 R43:U1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5155,26 +6909,26 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -6996,27 +8750,27 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -7582,7 +9336,7 @@
     <mergeCell ref="A42:U42"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:U41 R43:U1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7610,28 +9364,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="16"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -9424,27 +11178,27 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -9953,7 +11707,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:U41 R43:U1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9981,28 +11735,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -11799,27 +13553,27 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -12347,7 +14101,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="Q2:U41 Q43:U1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12364,7 +14118,7 @@
   <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N2"/>
+      <selection activeCell="A3" sqref="A1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12374,28 +14128,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -14191,27 +15945,27 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -14774,7 +16528,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="R1:U1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14784,1754 +16538,3159 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ED07CC-E145-478C-B12F-90A0EF61E9DE}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B32FB11-C8F2-4A10-AD46-D3BAEED1DCA7}">
+  <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="I1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="Q19" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="Q20" s="4"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="Q21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="Q22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="Q23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27">
+        <v>17</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28">
+        <v>18</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29">
+        <v>19</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31">
+        <v>21</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32">
+        <v>22</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33">
         <v>23</v>
       </c>
-      <c r="F1" s="7">
-        <v>0.42134210219997598</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33">
+        <v>23</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="J34">
+        <v>24</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36">
+        <v>26</v>
+      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37">
+        <v>27</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="J39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="J40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="J41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="2"/>
+      <c r="K48" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="2"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="2"/>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="2"/>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="2"/>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="2"/>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="I73" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="I2:N2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="R1:U1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FC7C0A-F4BC-445A-B0DB-3BB47E52A8EF}">
+  <dimension ref="A1:M73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="H1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="3"/>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="3"/>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="3"/>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="3"/>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="3"/>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="H22" s="3"/>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="H23" s="3"/>
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="H24" s="3"/>
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="H25" s="3"/>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="H26" s="3"/>
+      <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="H27" s="3"/>
+      <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="H28" s="3"/>
+      <c r="I28">
+        <v>18</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="H29" s="3"/>
+      <c r="I29">
+        <v>19</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="3"/>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="3"/>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="3"/>
+      <c r="I32">
+        <v>22</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33">
         <v>23</v>
       </c>
-      <c r="F2" s="7">
-        <v>0.42134210219997598</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="H33" s="3"/>
+      <c r="I33">
+        <v>23</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34">
         <v>24</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="3"/>
+      <c r="I34">
+        <v>24</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="3"/>
+      <c r="I35">
+        <v>25</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="3"/>
+      <c r="I36">
+        <v>26</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="3"/>
+      <c r="I37">
+        <v>27</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="H43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="H44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="H45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="H46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="H47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="H50" s="2"/>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="H51" s="2"/>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="H52" s="2"/>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="H53" s="2"/>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="H54" s="3"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2CC089-ED86-483D-AB9D-BB4359FAA84C}">
+  <dimension ref="A1:M73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="H1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="H2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="3"/>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="3"/>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="3"/>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="3"/>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="3"/>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="H22" s="3"/>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="H23" s="3"/>
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="H24" s="3"/>
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="H25" s="3"/>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="H26" s="3"/>
+      <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="H27" s="3"/>
+      <c r="I27">
+        <v>17</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="H28" s="3"/>
+      <c r="I28">
+        <v>18</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="H29" s="3"/>
+      <c r="I29">
+        <v>19</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="3"/>
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="3"/>
+      <c r="I31">
+        <v>21</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32">
         <v>22</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="3"/>
+      <c r="I32">
+        <v>22</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33">
         <v>23</v>
       </c>
-      <c r="P2" s="7">
-        <v>0.41028983820276999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="H33" s="3"/>
+      <c r="I33">
+        <v>23</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="3"/>
+      <c r="I34">
+        <v>24</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35">
         <v>25</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="3"/>
+      <c r="I35">
+        <v>25</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36">
         <v>26</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.367309226146176</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="3"/>
+      <c r="I36">
         <v>26</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0.33218388717788799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.34012780840045298</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="3"/>
+      <c r="I37">
         <v>27</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0.316988532145006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.20185548317435401</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0.17756888320379899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="I41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="H43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="H44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="H45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="H46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="H47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E48" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F48" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="H48" s="2"/>
+      <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L48" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2120</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="H50" s="2"/>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1226</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="H51" s="2"/>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="K9" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="N9" s="7">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7">
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52">
         <v>2</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1075</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="H52" s="2"/>
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="K10" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="L10" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7">
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53">
         <v>3</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1586</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="H53" s="2"/>
+      <c r="I53">
         <v>3</v>
       </c>
-      <c r="K11" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7">
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="H54" s="3"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2277</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M12" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>735</v>
-      </c>
-      <c r="J13" s="7">
-        <v>5</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="D14" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="F14" s="7">
-        <v>953</v>
-      </c>
-      <c r="J14" s="7">
-        <v>6</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="L14" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1162</v>
-      </c>
-      <c r="J15" s="7">
-        <v>7</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7">
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="F16" s="7">
-        <v>428</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>949</v>
-      </c>
-      <c r="J17" s="7">
-        <v>9</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1576</v>
-      </c>
-      <c r="J18" s="7">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="7">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="F19" s="7">
-        <v>620</v>
-      </c>
-      <c r="J19" s="7">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="7">
-        <v>292</v>
-      </c>
-      <c r="J20" s="7">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="7">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="F21" s="7">
-        <v>590</v>
-      </c>
-      <c r="J21" s="7">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="7">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="F22" s="7">
-        <v>358</v>
-      </c>
-      <c r="J22" s="7">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="7">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1435</v>
-      </c>
-      <c r="J23" s="7">
-        <v>15</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="7">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>76</v>
-      </c>
-      <c r="J24" s="7">
-        <v>16</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7">
-        <v>17</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="F25" s="7">
-        <v>844</v>
-      </c>
-      <c r="J25" s="7">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1027</v>
-      </c>
-      <c r="J26" s="7">
-        <v>18</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L26" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>138</v>
-      </c>
-      <c r="J27" s="7">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="7">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.84</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F28" s="7">
-        <v>11027</v>
-      </c>
-      <c r="J28" s="7">
-        <v>20</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N28" s="7">
-        <v>27658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7">
-        <v>21</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F29" s="7">
-        <v>924</v>
-      </c>
-      <c r="J29" s="7">
-        <v>21</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7">
-        <v>22</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>132</v>
-      </c>
-      <c r="J30" s="7">
-        <v>22</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="7">
-        <v>23</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>946</v>
-      </c>
-      <c r="J31" s="7">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="7">
-        <v>24</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>161</v>
-      </c>
-      <c r="J32" s="7">
-        <v>24</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="7">
-        <v>25</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="F33" s="7">
-        <v>280</v>
-      </c>
-      <c r="J33" s="7">
-        <v>25</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="N33" s="7">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="7">
-        <v>26</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F34" s="7">
-        <v>753</v>
-      </c>
-      <c r="J34" s="7">
-        <v>26</v>
-      </c>
-      <c r="K34" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="7">
-        <v>27</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="F35" s="7">
-        <v>674</v>
-      </c>
-      <c r="J35" s="7">
-        <v>27</v>
-      </c>
-      <c r="K35" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="F37" s="7">
-        <v>34364</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="N37" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F38" s="7">
-        <v>34364</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K38" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="N38" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="F39" s="7">
-        <v>34364</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="N39" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0.55426609242230196</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0.55426609242230196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0.55194180454297903</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0.55194180454297903</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0.54986246240946002</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0.54986246240946002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0.50642925529137395</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0.50642925529137395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="S49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="7">
-        <v>0</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="F50" s="7">
-        <v>9405</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="N50" s="7">
-        <v>9405</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S50" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="7">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="F51" s="7">
-        <v>19335</v>
-      </c>
-      <c r="J51" s="7">
-        <v>1</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="N51" s="7">
-        <v>19335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="7">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="D52" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E52" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="F52" s="7">
-        <v>27658</v>
-      </c>
-      <c r="J52" s="7">
-        <v>2</v>
-      </c>
-      <c r="K52" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="L52" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="N52" s="7">
-        <v>27658</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="7">
-        <v>3</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="F53" s="7">
-        <v>29512</v>
-      </c>
-      <c r="J53" s="7">
-        <v>3</v>
-      </c>
-      <c r="K53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="L53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="N53" s="7">
-        <v>29512</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D55" s="7">
-        <v>85910</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N55" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="D56" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="F56" s="7">
-        <v>85910</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K56" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="L56" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="N56" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F57" s="7">
-        <v>85910</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N57" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0.55426609242230196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" s="7">
-        <v>0.55194180454297903</v>
-      </c>
-    </row>
-    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O65" s="7">
-        <v>0.54986246240946002</v>
-      </c>
-    </row>
-    <row r="66" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J66" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O66" s="7">
-        <v>0.50642925529137395</v>
-      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="H73" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mini Project 1/performance.xlsx
+++ b/Mini Project 1/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanj\Documents\GitHub\COMP472\Mini Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4B5BEC-4CC0-43DA-8632-B455C6D9F3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13723074-70B4-44ED-A7A3-BEA8D2BC6D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="5" activeTab="6" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="8" xr2:uid="{D4ADB334-A904-4F6E-8489-C46AE50A3242}"/>
   </bookViews>
   <sheets>
     <sheet name="MNB" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="MLP Embedding" sheetId="8" r:id="rId7"/>
     <sheet name="MLP Twitter Embedding" sheetId="10" r:id="rId8"/>
     <sheet name="MLP Wiki " sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="183">
   <si>
     <t>precision</t>
   </si>
@@ -63,12 +62,6 @@
   </si>
   <si>
     <t>macro</t>
-  </si>
-  <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>weighted</t>
   </si>
   <si>
     <t>weighted avg</t>
@@ -111,55 +104,10 @@
     <t>Best estimator (Sentiment)</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>Emotion:</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>(Weighted)</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>(Macro)</t>
-  </si>
-  <si>
     <t>80% training/20% testing</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>estimator</t>
-  </si>
-  <si>
-    <t>(Emotion):</t>
-  </si>
-  <si>
-    <t>DecisionTreeClassifier(max_depth=100,</t>
-  </si>
-  <si>
-    <t>min_samples_split=30),</t>
-  </si>
-  <si>
-    <t>Score:</t>
-  </si>
-  <si>
-    <t>(Sentiment):</t>
-  </si>
-  <si>
-    <t>min_samples_split=5),</t>
   </si>
   <si>
     <t>MNB</t>
@@ -183,22 +131,7 @@
     <t>50% training/50% testing</t>
   </si>
   <si>
-    <t>Emotions:</t>
-  </si>
-  <si>
-    <t>Accuracy:</t>
-  </si>
-  <si>
-    <t>(Weighted):</t>
-  </si>
-  <si>
-    <t>(Macro):</t>
-  </si>
-  <si>
     <t>MLP Embedding</t>
-  </si>
-  <si>
-    <t>Sentiments:</t>
   </si>
   <si>
     <t>MLP Grid Search CV Embedding</t>
@@ -214,6 +147,453 @@
   </si>
   <si>
     <t>MLP Grid Twitter Embedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.00      0.00      0.00       143</t>
+  </si>
+  <si>
+    <t>Score for Emotions</t>
+  </si>
+  <si>
+    <t>Precision (Weighted)</t>
+  </si>
+  <si>
+    <t>F1 Score (Weighted)</t>
+  </si>
+  <si>
+    <t>F1 Score (Macro)</t>
+  </si>
+  <si>
+    <t>Score for Emotions: 0.3679915767307186</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.3679915767307186</t>
+  </si>
+  <si>
+    <t>Precision (Weighted): 0.3628356344259193</t>
+  </si>
+  <si>
+    <t>F1 Score (Weighted): 0.2611198192704462</t>
+  </si>
+  <si>
+    <t>F1 Score (Macro): 0.1216496884249517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.45      0.33      0.38      2052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.48      0.14      0.22      1173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.36      0.07      0.12      1084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.23      0.03      0.05      1724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.57      0.01      0.03      2254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.25      0.02      0.03       722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.36      0.01      0.02       995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.35      0.19      0.25      1189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.48      0.04      0.08       445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.22      0.00      0.00       923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       0.26      0.02      0.03      1509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.33      0.06      0.10       562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       0.00      0.00      0.00       273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          13       0.36      0.04      0.07       566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.38      0.07      0.12       364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.53      0.39      0.45      1422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          16       0.00      0.00      0.00        73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.32      0.07      0.11       879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.55      0.37      0.44       980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          19       0.40      0.01      0.03       145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.35      0.92      0.51     10982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          21       0.35      0.08      0.13       908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          23       0.00      0.00      0.00       928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.00      0.00      0.00       159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.42      0.05      0.08       311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          26       0.40      0.08      0.13       763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.42      0.01      0.01       663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.37     34191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.32      0.11      0.12     34191</t>
+  </si>
+  <si>
+    <t>weighted avg       0.36      0.37      0.26     34191</t>
+  </si>
+  <si>
+    <t>Score for Emotions: 0.4219133996489175</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.4219133996489175</t>
+  </si>
+  <si>
+    <t>Precision (Weighted): 0.4180194062051852</t>
+  </si>
+  <si>
+    <t>F1 Score (Weighted): 0.3461301644672839</t>
+  </si>
+  <si>
+    <t>F1 Score (Macro): 0.2360072673725874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.48      0.51      0.50      2105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.50      0.39      0.44      1247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.40      0.22      0.28       990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.30      0.05      0.08      1621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.39      0.04      0.07      2250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.38      0.09      0.14       697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.35      0.05      0.09       924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.42      0.29      0.34      1146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.52      0.15      0.24       427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.23      0.05      0.08       950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       0.33      0.07      0.11      1502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.31      0.24      0.27       590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       0.45      0.12      0.19       308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          13       0.60      0.09      0.15       564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.56      0.36      0.44       373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.53      0.64      0.58      1393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          16       0.27      0.06      0.09        70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.45      0.16      0.23       873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.55      0.59      0.57       982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          19       0.50      0.04      0.08       144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.40      0.85      0.55     11079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          21       0.52      0.16      0.24       906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.64      0.05      0.09       140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          23       0.33      0.01      0.01       923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.12      0.01      0.01       161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.49      0.25      0.33       334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          26       0.48      0.14      0.22       786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.54      0.10      0.17       695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.42     34180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.43      0.21      0.24     34180</t>
+  </si>
+  <si>
+    <t>weighted avg       0.42      0.42      0.35     34180</t>
+  </si>
+  <si>
+    <t>Score for Sentiments: 0.49700213506478313</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.49700213506478313</t>
+  </si>
+  <si>
+    <t>Precision (Weighted): 0.5078246201807983</t>
+  </si>
+  <si>
+    <t>F1 Score (Weighted): 0.4878377367196978</t>
+  </si>
+  <si>
+    <t>F1 Score (Macro): 0.44234578092707083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.52      0.15      0.24      3775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.47      0.44      0.45      7731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.43      0.57      0.49     10982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.61      0.58      0.59     11703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.50     34191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.50      0.43      0.44     34191</t>
+  </si>
+  <si>
+    <t>weighted avg       0.51      0.50      0.49     34191</t>
+  </si>
+  <si>
+    <t>Score for Sentiments: 0.5780280866003511</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.5780280866003511</t>
+  </si>
+  <si>
+    <t>Precision (Weighted): 0.5856603000372135</t>
+  </si>
+  <si>
+    <t>F1 Score (Weighted): 0.5771937284233294</t>
+  </si>
+  <si>
+    <t>F1 Score (Macro): 0.5485188357308813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.51      0.35      0.42      3688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.50      0.66      0.57      7668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.54      0.53      0.53     11079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.71      0.64      0.67     11745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.58     34180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.56      0.55      0.55     34180</t>
+  </si>
+  <si>
+    <t>weighted avg       0.59      0.58      0.58     34180</t>
+  </si>
+  <si>
+    <t>Score for Emotions: 0.39220331052231383</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.39220331052231383</t>
+  </si>
+  <si>
+    <t>Precision (Weighted): 0.36957817814234456</t>
+  </si>
+  <si>
+    <t>F1 Score (Weighted): 0.3166406515132536</t>
+  </si>
+  <si>
+    <t>F1 Score (Macro): 0.20444237765417422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.48      0.42      0.45      2059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.51      0.32      0.39      1250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.30      0.15      0.20      1034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.22      0.02      0.04      1712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           4       0.32      0.03      0.06      2274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           5       0.28      0.10      0.15       689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           6       0.31      0.05      0.09       983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           7       0.38      0.22      0.28      1149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           8       0.36      0.16      0.22       417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           9       0.15      0.02      0.04       902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          10       0.26      0.08      0.12      1539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          11       0.29      0.12      0.16       613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          12       0.37      0.06      0.11       265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          13       0.28      0.09      0.13       572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          14       0.43      0.28      0.34       354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          15       0.64      0.48      0.55      1451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          16       0.18      0.04      0.06        78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          17       0.34      0.16      0.22       808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          18       0.51      0.52      0.52      1016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          19       0.32      0.07      0.11       172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          20       0.38      0.84      0.52     10990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          21       0.35      0.18      0.24       847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          22       0.27      0.02      0.04       127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          23       0.45      0.01      0.03       953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          24       0.29      0.01      0.02       164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          25       0.42      0.21      0.28       314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          26       0.37      0.16      0.22       775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          27       0.29      0.08      0.12       687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.39     34194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.35      0.18      0.20     34194</t>
+  </si>
+  <si>
+    <t>weighted avg       0.37      0.39      0.32     34194</t>
+  </si>
+  <si>
+    <t>Score for Sentiments: 0.5150318769374744</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.5150318769374744</t>
+  </si>
+  <si>
+    <t>Precision (Weighted): 0.5115075018315457</t>
+  </si>
+  <si>
+    <t>F1 Score (Weighted): 0.5095379176070963</t>
+  </si>
+  <si>
+    <t>F1 Score (Macro): 0.47578349033861805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           0       0.46      0.25      0.32      3772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1       0.48      0.51      0.49      7758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           2       0.45      0.48      0.47     10990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           3       0.60      0.64      0.62     11674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    accuracy                           0.52     34194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   macro avg       0.50      0.47      0.48     34194</t>
+  </si>
+  <si>
+    <t>weighted avg       0.51      0.52      0.51     34194</t>
   </si>
 </sst>
 </file>
@@ -281,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,20 +689,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -717,42 +1094,42 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.437550925387032</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>0.44922593411709899</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <f>J3-B3</f>
@@ -761,13 +1138,13 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.437550925387032</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <v>0.44922593411709899</v>
@@ -779,13 +1156,13 @@
     </row>
     <row r="5" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0.485135330778038</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>0.49075090338022398</v>
@@ -797,13 +1174,13 @@
     </row>
     <row r="6" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.37029721284134198</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>0.39013039973081898</v>
@@ -815,13 +1192,13 @@
     </row>
     <row r="7" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.223413218124066</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>0.24916123269239601</v>
@@ -2312,7 +2689,7 @@
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>0.47</v>
@@ -2328,7 +2705,7 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K40">
         <v>0.49</v>
@@ -2362,7 +2739,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
         <v>0.49</v>
@@ -2377,7 +2754,7 @@
         <v>34364</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K41">
         <v>0.49</v>
@@ -2409,37 +2786,37 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>0.606070306134326</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J43">
         <v>0.61475963217320395</v>
@@ -2451,13 +2828,13 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.606070306134326</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J44">
         <v>0.61475963217320395</v>
@@ -2469,13 +2846,13 @@
     </row>
     <row r="45" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>0.60058179217955299</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J45">
         <v>0.60951334895640996</v>
@@ -2487,13 +2864,13 @@
     </row>
     <row r="46" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>0.59933260382987197</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J46">
         <v>0.60863292110567702</v>
@@ -2505,13 +2882,13 @@
     </row>
     <row r="47" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>0.56391843192922797</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47">
         <v>0.57595761311250904</v>
@@ -2785,7 +3162,7 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>0.59</v>
@@ -2801,7 +3178,7 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K56">
         <v>0.6</v>
@@ -2835,7 +3212,7 @@
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>0.6</v>
@@ -2851,7 +3228,7 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K57">
         <v>0.61</v>
@@ -2894,1721 +3271,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ED07CC-E145-478C-B12F-90A0EF61E9DE}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T66"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F57" sqref="C50:F57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="7">
-        <v>0.406511167409219</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.406511167409219</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0.41028983820276999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.38178934998478398</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0.33218388717788799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.311667549983496</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0.316988532145006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.17423879744201101</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0.17756888320379899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.49</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="F8" s="7">
-        <v>2128</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1251</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="N9" s="7">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1032</v>
-      </c>
-      <c r="J10" s="7">
-        <v>2</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="L10" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1707</v>
-      </c>
-      <c r="J11" s="7">
-        <v>3</v>
-      </c>
-      <c r="K11" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.42</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2220</v>
-      </c>
-      <c r="J12" s="7">
-        <v>4</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="M12" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>678</v>
-      </c>
-      <c r="J13" s="7">
-        <v>5</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1006</v>
-      </c>
-      <c r="J14" s="7">
-        <v>6</v>
-      </c>
-      <c r="K14" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="L14" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1177</v>
-      </c>
-      <c r="J15" s="7">
-        <v>7</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="7">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="F16" s="7">
-        <v>419</v>
-      </c>
-      <c r="J16" s="7">
-        <v>8</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="F17" s="7">
-        <v>963</v>
-      </c>
-      <c r="J17" s="7">
-        <v>9</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="E18" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1557</v>
-      </c>
-      <c r="J18" s="7">
-        <v>10</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="7">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="D19" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="F19" s="7">
-        <v>551</v>
-      </c>
-      <c r="J19" s="7">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>320</v>
-      </c>
-      <c r="J20" s="7">
-        <v>12</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="7">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.04</v>
-      </c>
-      <c r="F21" s="7">
-        <v>581</v>
-      </c>
-      <c r="J21" s="7">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="7">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="F22" s="7">
-        <v>337</v>
-      </c>
-      <c r="J22" s="7">
-        <v>14</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="7">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1435</v>
-      </c>
-      <c r="J23" s="7">
-        <v>15</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0.76</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="7">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>70</v>
-      </c>
-      <c r="J24" s="7">
-        <v>16</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7">
-        <v>17</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="F25" s="7">
-        <v>832</v>
-      </c>
-      <c r="J25" s="7">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1023</v>
-      </c>
-      <c r="J26" s="7">
-        <v>18</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L26" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>157</v>
-      </c>
-      <c r="J27" s="7">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="7">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="F28" s="7">
-        <v>11086</v>
-      </c>
-      <c r="J28" s="7">
-        <v>20</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0.87</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N28" s="7">
-        <v>27658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7">
-        <v>21</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="F29" s="7">
-        <v>901</v>
-      </c>
-      <c r="J29" s="7">
-        <v>21</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0.27</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="7">
-        <v>22</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>128</v>
-      </c>
-      <c r="J30" s="7">
-        <v>22</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="7">
-        <v>23</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>895</v>
-      </c>
-      <c r="J31" s="7">
-        <v>23</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0</v>
-      </c>
-      <c r="L31" s="7">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="7">
-        <v>24</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>165</v>
-      </c>
-      <c r="J32" s="7">
-        <v>24</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="7">
-        <v>25</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="F33" s="7">
-        <v>324</v>
-      </c>
-      <c r="J33" s="7">
-        <v>25</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="N33" s="7">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="7">
-        <v>26</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="F34" s="7">
-        <v>732</v>
-      </c>
-      <c r="J34" s="7">
-        <v>26</v>
-      </c>
-      <c r="K34" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="N34" s="7">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="7">
-        <v>27</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="F35" s="7">
-        <v>666</v>
-      </c>
-      <c r="J35" s="7">
-        <v>27</v>
-      </c>
-      <c r="K35" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="N35" s="7">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="D37" s="7">
-        <v>34341</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="N37" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="G38" s="7">
-        <v>34341</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K38" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="N38" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="F39" s="7">
-        <v>34341</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0.33</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="N39" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0.53682187472700205</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0.53682187472700205</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" s="7">
-        <v>0.55426609242230196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0.53608626594445996</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0.55194180454297903</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0.52091505764034796</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0.54986246240946002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0.46353796990663199</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0.50642925529137395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="S49" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="7">
-        <v>0</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="F50" s="7">
-        <v>3744</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="N50" s="7">
-        <v>9405</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S50" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="7">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="F51" s="7">
-        <v>7750</v>
-      </c>
-      <c r="J51" s="7">
-        <v>1</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="N51" s="7">
-        <v>19335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="7">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="D52" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="E52" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="F52" s="7">
-        <v>11086</v>
-      </c>
-      <c r="J52" s="7">
-        <v>2</v>
-      </c>
-      <c r="K52" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="L52" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="N52" s="7">
-        <v>27658</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="7">
-        <v>3</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0.62</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="F53" s="7">
-        <v>11761</v>
-      </c>
-      <c r="J53" s="7">
-        <v>3</v>
-      </c>
-      <c r="K53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="L53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="N53" s="7">
-        <v>29512</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="F55" s="7">
-        <v>34341</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N55" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="D56" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="F56" s="7">
-        <v>34341</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K56" s="7">
-        <v>0.53</v>
-      </c>
-      <c r="L56" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="M56" s="7">
-        <v>0.51</v>
-      </c>
-      <c r="N56" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="E57" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="F57" s="7">
-        <v>34341</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N57" s="7">
-        <v>85910</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J63" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M63" s="7">
-        <v>0.55426609242230196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J64" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" s="7">
-        <v>0.55194180454297903</v>
-      </c>
-    </row>
-    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J65" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O65" s="7">
-        <v>0.54986246240946002</v>
-      </c>
-    </row>
-    <row r="66" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J66" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O66" s="7">
-        <v>0.50642925529137395</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="54" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4635,44 +3298,44 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="I2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.59643813292980996</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>0.62153416365964298</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <f>J3-B3</f>
@@ -4681,13 +3344,13 @@
     </row>
     <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.59643813292980996</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <v>0.62153416365964298</v>
@@ -4700,13 +3363,13 @@
     </row>
     <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0.61352220541497104</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>0.63247388401642501</v>
@@ -4719,13 +3382,13 @@
     </row>
     <row r="6" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.59299911296687102</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>0.61630867674297196</v>
@@ -4738,13 +3401,13 @@
     </row>
     <row r="7" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.51245925225873401</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>0.53911360534946795</v>
@@ -6274,7 +4937,7 @@
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>0.56999999999999995</v>
@@ -6290,7 +4953,7 @@
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K40">
         <v>0.61</v>
@@ -6325,7 +4988,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
         <v>0.61</v>
@@ -6341,7 +5004,7 @@
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K41">
         <v>0.63</v>
@@ -6374,37 +5037,37 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>0.72023047375159999</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J43">
         <v>0.73947153998370296</v>
@@ -6417,13 +5080,13 @@
     </row>
     <row r="44" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.72023047375159999</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J44">
         <v>0.73947153998370296</v>
@@ -6436,13 +5099,13 @@
     </row>
     <row r="45" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>0.73081933374599695</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J45">
         <v>0.74693363174298999</v>
@@ -6455,13 +5118,13 @@
     </row>
     <row r="46" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>0.72244340842761801</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J46">
         <v>0.74123286935547505</v>
@@ -6474,13 +5137,13 @@
     </row>
     <row r="47" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>0.70669771557392003</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47">
         <v>0.72529561613622895</v>
@@ -6776,7 +5439,7 @@
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>0.7</v>
@@ -6792,7 +5455,7 @@
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K56">
         <v>0.72</v>
@@ -6827,7 +5490,7 @@
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>0.73</v>
@@ -6843,7 +5506,7 @@
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K57">
         <v>0.75</v>
@@ -6909,30 +5572,30 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.57758118961704097</v>
@@ -6944,13 +5607,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="7">
         <v>0.46929344663019401</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <f>K3-B3</f>
@@ -6959,7 +5622,7 @@
     </row>
     <row r="4" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.57758118961704097</v>
@@ -6971,7 +5634,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K4" s="7">
         <v>0.46929344663019401</v>
@@ -6984,7 +5647,7 @@
     </row>
     <row r="5" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0.57054315294411195</v>
@@ -6996,7 +5659,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5" s="7">
         <v>0.459023656250509</v>
@@ -7009,7 +5672,7 @@
     </row>
     <row r="6" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.57175706136806304</v>
@@ -7021,7 +5684,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7">
         <v>0.42366431420389999</v>
@@ -7034,7 +5697,7 @@
     </row>
     <row r="7" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.50773592597766604</v>
@@ -7046,7 +5709,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7">
         <v>0.31837692567763898</v>
@@ -8647,7 +7310,7 @@
     <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <v>0.52</v>
@@ -8665,7 +7328,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="2"/>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K40" s="7">
         <v>0.46</v>
@@ -8700,7 +7363,7 @@
     <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
         <v>0.56999999999999995</v>
@@ -8717,7 +7380,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="J41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K41" s="7">
         <v>0.46</v>
@@ -8750,31 +7413,31 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" ht="57" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <v>0.565155395181003</v>
@@ -8786,7 +7449,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J43" s="7">
         <v>0.725410313118379</v>
@@ -8803,7 +7466,7 @@
     </row>
     <row r="44" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.565155395181003</v>
@@ -8815,7 +7478,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J44" s="7">
         <v>0.725410313118379</v>
@@ -8832,7 +7495,7 @@
     </row>
     <row r="45" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>0.57135687958930004</v>
@@ -8844,7 +7507,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J45" s="7">
         <v>0.72431344885309901</v>
@@ -8861,7 +7524,7 @@
     </row>
     <row r="46" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>0.54971554570081405</v>
@@ -8873,7 +7536,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J46" s="7">
         <v>0.72458520761896095</v>
@@ -8890,7 +7553,7 @@
     </row>
     <row r="47" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>0.49024227773818901</v>
@@ -8902,7 +7565,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47" s="7">
         <v>0.70450882386785796</v>
@@ -9226,7 +7889,7 @@
     <row r="56" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>0.56000000000000005</v>
@@ -9244,7 +7907,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="3"/>
       <c r="J56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K56" s="7">
         <v>0.71</v>
@@ -9279,7 +7942,7 @@
     <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>0.56999999999999995</v>
@@ -9297,7 +7960,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="3"/>
       <c r="J57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K57" s="7">
         <v>0.72</v>
@@ -9364,32 +8027,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
         <v>0.38347544775086401</v>
@@ -9401,13 +8064,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>0.39059847550127302</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <f>J3-B3</f>
@@ -9416,7 +8079,7 @@
     </row>
     <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.48879641485275199</v>
@@ -9424,7 +8087,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <v>0.484751484111279</v>
@@ -9437,7 +8100,7 @@
     </row>
     <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0.48370589971275602</v>
@@ -9445,7 +8108,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>0.48578953953699699</v>
@@ -9458,7 +8121,7 @@
     </row>
     <row r="6" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0.46375137434813701</v>
@@ -9466,7 +8129,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>0.45367634569943999</v>
@@ -9479,7 +8142,7 @@
     </row>
     <row r="7" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0.36344663470229799</v>
@@ -9487,7 +8150,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <v>0.342760409652483</v>
@@ -11093,7 +9756,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="1"/>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K40">
         <v>0.49</v>
@@ -11128,7 +9791,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>0.48</v>
@@ -11145,7 +9808,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="J41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K41" s="2">
         <v>0.49</v>
@@ -11178,31 +9841,31 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>0.53839043671411801</v>
@@ -11210,7 +9873,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J43">
         <v>0.54369629222792704</v>
@@ -11223,7 +9886,7 @@
     </row>
     <row r="44" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.61247235478989603</v>
@@ -11231,7 +9894,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J44">
         <v>0.61733209172389703</v>
@@ -11244,7 +9907,7 @@
     </row>
     <row r="45" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>0.60704894506270402</v>
@@ -11252,7 +9915,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J45">
         <v>0.61222835922126095</v>
@@ -11265,7 +9928,7 @@
     </row>
     <row r="46" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>0.60548714993907404</v>
@@ -11273,7 +9936,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J46">
         <v>0.61135704979544603</v>
@@ -11286,7 +9949,7 @@
     </row>
     <row r="47" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>0.572278636559019</v>
@@ -11294,7 +9957,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47">
         <v>0.57956030436907602</v>
@@ -11597,7 +10260,7 @@
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56">
         <v>0.6</v>
@@ -11615,7 +10278,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K56">
         <v>0.6</v>
@@ -11650,7 +10313,7 @@
     <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>0.61</v>
@@ -11667,7 +10330,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="J57" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K57">
         <v>0.61</v>
@@ -11735,32 +10398,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="7">
         <v>0.59469211966010904</v>
@@ -11772,13 +10435,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3">
         <v>0.40446395130688401</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <f>J3-B3</f>
@@ -11787,7 +10450,7 @@
     </row>
     <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>0.59469211966010904</v>
@@ -11795,7 +10458,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="7">
         <v>0.50552904202071902</v>
@@ -11808,7 +10471,7 @@
     </row>
     <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>0.61184786403312497</v>
@@ -11816,7 +10479,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" s="7">
         <v>0.51040116446962802</v>
@@ -11829,7 +10492,7 @@
     </row>
     <row r="6" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7">
         <v>0.591520708979835</v>
@@ -11837,7 +10500,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="7">
         <v>0.46447510370878298</v>
@@ -11850,7 +10513,7 @@
     </row>
     <row r="7" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>0.51684703580818603</v>
@@ -11858,7 +10521,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="7">
         <v>0.37100431754569302</v>
@@ -13468,7 +12131,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="1"/>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K40" s="7">
         <v>0.54</v>
@@ -13503,7 +12166,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="8">
         <v>0.61</v>
@@ -13520,7 +12183,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="J41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K41" s="7">
         <v>0.51</v>
@@ -13553,31 +12216,31 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="7">
         <v>0.72081247817483396</v>
@@ -13585,7 +12248,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J43">
         <v>0.51521940466232397</v>
@@ -13598,7 +12261,7 @@
     </row>
     <row r="44" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="7">
         <v>0.72081247817483396</v>
@@ -13606,7 +12269,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J44" s="7">
         <v>0.62719706669770603</v>
@@ -13619,7 +12282,7 @@
     </row>
     <row r="45" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" s="7">
         <v>0.73241701335358</v>
@@ -13627,7 +12290,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J45" s="7">
         <v>0.673675858005928</v>
@@ -13640,7 +12303,7 @@
     </row>
     <row r="46" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="7">
         <v>0.72335866739475496</v>
@@ -13648,7 +12311,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J46" s="7">
         <v>0.62950626069214</v>
@@ -13661,7 +12324,7 @@
     </row>
     <row r="47" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="7">
         <v>0.70629159436521305</v>
@@ -13669,7 +12332,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47" s="7">
         <v>0.60365558490592097</v>
@@ -13985,7 +12648,7 @@
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="7">
         <v>0.7</v>
@@ -14003,7 +12666,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K56" s="7">
         <v>0.65</v>
@@ -14038,7 +12701,7 @@
     <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" s="7">
         <v>0.73</v>
@@ -14055,7 +12718,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="J57" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K57" s="7">
         <v>0.67</v>
@@ -14128,32 +12791,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7">
         <v>0.42134210219997598</v>
@@ -14161,13 +12824,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="7">
         <v>0.41028983820276999</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R3">
         <f>J3-B3</f>
@@ -14176,7 +12839,7 @@
     </row>
     <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>0.42134210219997598</v>
@@ -14184,7 +12847,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="7">
         <v>0.41028983820276999</v>
@@ -14197,7 +12860,7 @@
     </row>
     <row r="5" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>0.367309226146176</v>
@@ -14205,7 +12868,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J5" s="7">
         <v>0.33218388717788799</v>
@@ -14218,7 +12881,7 @@
     </row>
     <row r="6" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7">
         <v>0.34012780840045298</v>
@@ -14226,7 +12889,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="7">
         <v>0.316988532145006</v>
@@ -14239,7 +12902,7 @@
     </row>
     <row r="7" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>0.20185548317435401</v>
@@ -14247,7 +12910,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="7">
         <v>0.17756888320379899</v>
@@ -15898,7 +14561,7 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="7">
         <v>0.37</v>
@@ -15913,7 +14576,7 @@
         <v>34364</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K41" s="7">
         <v>0.33</v>
@@ -15945,31 +14608,31 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" s="7">
         <v>0.55426609242230196</v>
@@ -15977,7 +14640,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J43" s="7">
         <v>0.55426609242230196</v>
@@ -15990,7 +14653,7 @@
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="7">
         <v>0.55426609242230196</v>
@@ -15998,7 +14661,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J44" s="7">
         <v>0.55426609242230196</v>
@@ -16011,7 +14674,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" s="7">
         <v>0.55194180454297903</v>
@@ -16019,7 +14682,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J45" s="7">
         <v>0.55194180454297903</v>
@@ -16033,7 +14696,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" s="7">
         <v>0.54986246240946002</v>
@@ -16041,7 +14704,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J46" s="7">
         <v>0.54986246240946002</v>
@@ -16054,7 +14717,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="7">
         <v>0.50642925529137395</v>
@@ -16062,7 +14725,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47" s="7">
         <v>0.50642925529137395</v>
@@ -16371,7 +15034,7 @@
     <row r="56" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="7">
         <v>0.53</v>
@@ -16388,7 +15051,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J56" s="7">
         <v>0.53</v>
@@ -16423,7 +15086,7 @@
     <row r="57" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" s="7">
         <v>0.55000000000000004</v>
@@ -16440,7 +15103,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J57" s="7">
         <v>0.55000000000000004</v>
@@ -16539,163 +15202,173 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B32FB11-C8F2-4A10-AD46-D3BAEED1DCA7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:N2"/>
+    <sheetView topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I57" sqref="I43:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="94.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>0.40567053823537902</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J3" s="7"/>
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0.40567053823537902</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J4" s="7"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7"/>
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0.376601652879125</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="J5" s="7"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7"/>
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>0.30963281940294402</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="J6" s="7"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7"/>
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>0.17144682714644</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J7" s="7"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:17" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="K8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>3</v>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10"/>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10">
+        <v>0.47</v>
+      </c>
+      <c r="D10">
+        <v>0.41</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2038</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
-      <c r="J10">
-        <v>0</v>
+      <c r="I10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -16703,20 +15376,27 @@
       <c r="N10" s="7"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11"/>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11">
+        <v>0.46</v>
+      </c>
+      <c r="D11">
+        <v>0.35</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1197</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11">
-        <v>1</v>
+      <c r="I11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -16724,20 +15404,27 @@
       <c r="N11" s="7"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12"/>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12">
+        <v>0.32</v>
+      </c>
+      <c r="D12">
+        <v>0.16</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F12" s="7">
+        <v>988</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12">
-        <v>2</v>
+      <c r="I12" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -16745,20 +15432,27 @@
       <c r="N12" s="7"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13"/>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13">
+        <v>0.24</v>
+      </c>
+      <c r="D13">
+        <v>0.02</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1652</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="3"/>
-      <c r="J13">
-        <v>3</v>
+      <c r="I13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -16766,20 +15460,27 @@
       <c r="N13" s="7"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14"/>
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14">
+        <v>0.37</v>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2217</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="3"/>
-      <c r="J14">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -16787,20 +15488,27 @@
       <c r="N14" s="7"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15"/>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15">
+        <v>0.35</v>
+      </c>
+      <c r="D15">
+        <v>0.05</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F15" s="7">
+        <v>697</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15">
-        <v>5</v>
+      <c r="I15" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -16808,20 +15516,27 @@
       <c r="N15" s="7"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A16"/>
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="C16">
+        <v>0.48</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="F16" s="7">
+        <v>999</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16">
-        <v>6</v>
+      <c r="I16" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -16829,20 +15544,27 @@
       <c r="N16" s="7"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A17"/>
       <c r="B17">
         <v>7</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17">
+        <v>0.37</v>
+      </c>
+      <c r="D17">
+        <v>0.08</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1167</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
-      <c r="J17">
-        <v>7</v>
+      <c r="I17" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -16850,20 +15572,27 @@
       <c r="N17" s="7"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A18"/>
       <c r="B18">
         <v>8</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18">
+        <v>0.6</v>
+      </c>
+      <c r="D18">
+        <v>0.08</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="F18" s="7">
+        <v>453</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="3"/>
-      <c r="J18">
-        <v>8</v>
+      <c r="I18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
@@ -16871,20 +15600,27 @@
       <c r="N18" s="7"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A19"/>
       <c r="B19">
         <v>9</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19">
+        <v>0.2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="7">
+        <v>909</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19">
-        <v>9</v>
+      <c r="I19" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -16892,20 +15628,27 @@
       <c r="N19" s="7"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A20"/>
       <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20">
+        <v>0.31</v>
+      </c>
+      <c r="D20">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1562</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20">
-        <v>10</v>
+      <c r="I20" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -16913,20 +15656,27 @@
       <c r="N20" s="7"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A21"/>
       <c r="B21">
         <v>11</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="C21">
+        <v>0.33</v>
+      </c>
+      <c r="D21">
+        <v>0.08</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="F21" s="7">
+        <v>555</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
-      <c r="J21">
-        <v>11</v>
+      <c r="I21" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -16934,20 +15684,27 @@
       <c r="N21" s="7"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A22"/>
       <c r="B22">
         <v>12</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>286</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="3"/>
-      <c r="J22">
-        <v>12</v>
+      <c r="I22" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
@@ -16955,20 +15712,27 @@
       <c r="N22" s="7"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A23"/>
       <c r="B23">
         <v>13</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="C23">
+        <v>0.49</v>
+      </c>
+      <c r="D23">
+        <v>0.03</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="F23" s="7">
+        <v>617</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23">
-        <v>13</v>
+      <c r="I23" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -16976,20 +15740,27 @@
       <c r="N23" s="7"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A24"/>
       <c r="B24">
         <v>14</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="C24">
+        <v>0.42</v>
+      </c>
+      <c r="D24">
+        <v>0.08</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="F24" s="7">
+        <v>375</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
-      <c r="J24">
-        <v>14</v>
+      <c r="I24" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -16997,20 +15768,27 @@
       <c r="N24" s="7"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A25"/>
       <c r="B25">
         <v>15</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="C25">
+        <v>0.71</v>
+      </c>
+      <c r="D25">
+        <v>0.74</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1445</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
-      <c r="J25">
-        <v>15</v>
+      <c r="I25" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -17018,20 +15796,27 @@
       <c r="N25" s="7"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A26"/>
       <c r="B26">
         <v>16</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>77</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="3"/>
-      <c r="J26">
-        <v>16</v>
+      <c r="I26" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -17039,20 +15824,27 @@
       <c r="N26" s="7"/>
       <c r="Q26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A27"/>
       <c r="B27">
         <v>17</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="C27">
+        <v>0.34</v>
+      </c>
+      <c r="D27">
+        <v>0.13</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="F27" s="7">
+        <v>860</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="3"/>
-      <c r="J27">
-        <v>17</v>
+      <c r="I27" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -17060,20 +15852,27 @@
       <c r="N27" s="7"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A28"/>
       <c r="B28">
         <v>18</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="C28">
+        <v>0.59</v>
+      </c>
+      <c r="D28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F28" s="7">
+        <v>993</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="3"/>
-      <c r="J28">
-        <v>18</v>
+      <c r="I28" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -17081,20 +15880,27 @@
       <c r="N28" s="7"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A29"/>
       <c r="B29">
         <v>19</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>164</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="3"/>
-      <c r="J29">
-        <v>19</v>
+      <c r="I29" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -17102,20 +15908,27 @@
       <c r="N29" s="7"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30"/>
       <c r="B30">
         <v>20</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30">
+        <v>0.38</v>
+      </c>
+      <c r="D30">
+        <v>0.89</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="F30" s="7">
+        <v>11171</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="3"/>
-      <c r="J30">
-        <v>20</v>
+      <c r="I30" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
@@ -17123,20 +15936,27 @@
       <c r="N30" s="7"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A31"/>
       <c r="B31">
         <v>21</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="C31">
+        <v>0.4</v>
+      </c>
+      <c r="D31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="F31" s="7">
+        <v>930</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="3"/>
-      <c r="J31">
-        <v>21</v>
+      <c r="I31" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -17144,20 +15964,27 @@
       <c r="N31" s="7"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:17" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A32"/>
       <c r="B32">
         <v>22</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>143</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="3"/>
-      <c r="J32">
-        <v>22</v>
+      <c r="I32" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -17165,20 +15992,27 @@
       <c r="N32" s="7"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+    <row r="33" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A33"/>
       <c r="B33">
         <v>23</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>975</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="3"/>
-      <c r="J33">
-        <v>23</v>
+      <c r="I33" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
@@ -17186,20 +16020,27 @@
       <c r="N33" s="7"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+    <row r="34" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A34"/>
       <c r="B34">
         <v>24</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>143</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="3"/>
-      <c r="J34">
-        <v>24</v>
+      <c r="I34" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -17207,20 +16048,27 @@
       <c r="N34" s="7"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+    <row r="35" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A35"/>
       <c r="B35">
         <v>25</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="C35">
+        <v>0.42</v>
+      </c>
+      <c r="D35">
+        <v>0.24</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="7">
+        <v>300</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="3"/>
-      <c r="J35">
-        <v>25</v>
+      <c r="I35" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -17228,20 +16076,27 @@
       <c r="N35" s="7"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+    <row r="36" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A36"/>
       <c r="B36">
         <v>26</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="C36">
+        <v>0.39</v>
+      </c>
+      <c r="D36">
+        <v>0.15</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="F36" s="7">
+        <v>760</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="3"/>
-      <c r="J36">
-        <v>26</v>
+      <c r="I36" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -17249,20 +16104,27 @@
       <c r="N36" s="7"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+    <row r="37" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A37"/>
       <c r="B37">
         <v>27</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="C37">
+        <v>0.33</v>
+      </c>
+      <c r="D37">
+        <v>0.05</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="F37" s="7">
+        <v>680</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="3"/>
-      <c r="J37">
-        <v>27</v>
+      <c r="I37" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -17271,10 +16133,7 @@
       <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="4"/>
@@ -17288,47 +16147,68 @@
       <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39"/>
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="J39" t="s">
-        <v>4</v>
+      <c r="E39">
+        <v>0.41</v>
+      </c>
+      <c r="F39">
+        <v>34353</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="J40" t="s">
-        <v>5</v>
+    <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0.32</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="F40">
+        <v>34353</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="J41" s="1" t="s">
-        <v>19</v>
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>0.38</v>
+      </c>
+      <c r="D41">
+        <v>0.41</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F41" s="7">
+        <v>34353</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -17336,89 +16216,99 @@
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="7"/>
+      <c r="A43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>0.53579017844147503</v>
+      </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="J43" s="7"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>0.53579017844147503</v>
+      </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="J44" s="7"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="7"/>
+    <row r="45" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>0.53288623839011795</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="J45" s="7"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="7"/>
+    <row r="46" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>0.51959876049757403</v>
+      </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="J46" s="7"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="7"/>
+    <row r="47" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>0.46210853244481298</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="2" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="J47" s="7"/>
       <c r="Q47" s="4"/>
@@ -17439,18 +16329,8 @@
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="2"/>
-      <c r="K48" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
-        <v>1</v>
-      </c>
-      <c r="M48" t="s">
-        <v>2</v>
-      </c>
-      <c r="N48" t="s">
-        <v>3</v>
+      <c r="I48" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q48" s="4"/>
     </row>
@@ -17466,15 +16346,22 @@
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="C50">
+        <v>0.47</v>
+      </c>
+      <c r="D50">
+        <v>0.13</v>
+      </c>
+      <c r="E50">
+        <v>0.2</v>
+      </c>
+      <c r="F50">
+        <v>3821</v>
+      </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="2"/>
-      <c r="J50">
-        <v>0</v>
+      <c r="I50" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -17487,15 +16374,22 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="C51">
+        <v>0.53</v>
+      </c>
+      <c r="D51">
+        <v>0.44</v>
+      </c>
+      <c r="E51">
+        <v>0.48</v>
+      </c>
+      <c r="F51">
+        <v>7628</v>
+      </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="2"/>
-      <c r="J51">
-        <v>1</v>
+      <c r="I51" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -17508,15 +16402,22 @@
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="C52">
+        <v>0.47</v>
+      </c>
+      <c r="D52">
+        <v>0.59</v>
+      </c>
+      <c r="E52">
+        <v>0.52</v>
+      </c>
+      <c r="F52">
+        <v>11171</v>
+      </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="2"/>
-      <c r="J52">
-        <v>2</v>
+      <c r="I52" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -17529,15 +16430,22 @@
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="C53">
+        <v>0.62</v>
+      </c>
+      <c r="D53">
+        <v>0.68</v>
+      </c>
+      <c r="E53">
+        <v>0.65</v>
+      </c>
+      <c r="F53">
+        <v>11733</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="2"/>
-      <c r="J53">
-        <v>3</v>
+      <c r="I53" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -17547,10 +16455,6 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="3"/>
@@ -17565,16 +16469,18 @@
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="E55">
+        <v>0.54</v>
+      </c>
+      <c r="F55">
+        <v>34353</v>
+      </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="I55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55" s="4"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -17584,18 +16490,26 @@
     <row r="56" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>0.52</v>
+      </c>
+      <c r="D56">
+        <v>0.46</v>
+      </c>
+      <c r="E56">
+        <v>0.46</v>
+      </c>
+      <c r="F56">
+        <v>34353</v>
+      </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="I56" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J56" s="4"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -17605,18 +16519,26 @@
     <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>0.53</v>
+      </c>
+      <c r="D57">
+        <v>0.54</v>
+      </c>
+      <c r="E57">
+        <v>0.52</v>
+      </c>
+      <c r="F57">
+        <v>34353</v>
+      </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="I57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" s="4"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -17692,637 +16614,565 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="I2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="R1:U1048576">
+  <conditionalFormatting sqref="R40:U1048576 A41:D41 A40:C40 A3:D38 A39:B39 E39:F39">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="26" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FC7C0A-F4BC-445A-B0DB-3BB47E52A8EF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1048576"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H57" sqref="H43:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="H1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="H2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7"/>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7"/>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7"/>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7"/>
       <c r="H6" s="3" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7"/>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3</v>
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10">
-        <v>0</v>
+    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="H10" s="3"/>
-      <c r="I10">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11">
-        <v>1</v>
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="H11" s="3"/>
-      <c r="I11">
-        <v>1</v>
+      <c r="H11" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12">
-        <v>2</v>
+    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="H12" s="3"/>
-      <c r="I12">
-        <v>2</v>
+      <c r="H12" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13">
-        <v>3</v>
+    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="H13" s="3"/>
-      <c r="I13">
-        <v>3</v>
+      <c r="H13" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14">
-        <v>4</v>
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15">
-        <v>5</v>
+    <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="H15" s="3"/>
-      <c r="I15">
-        <v>5</v>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16">
-        <v>6</v>
+    <row r="16" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="H16" s="3"/>
-      <c r="I16">
-        <v>6</v>
+      <c r="H16" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17">
-        <v>7</v>
+    <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="H17" s="3"/>
-      <c r="I17">
-        <v>7</v>
+      <c r="H17" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18">
-        <v>8</v>
+    <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="H18" s="3"/>
-      <c r="I18">
-        <v>8</v>
+      <c r="H18" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19">
-        <v>9</v>
+    <row r="19" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="H19" s="3"/>
-      <c r="I19">
-        <v>9</v>
+      <c r="H19" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20">
-        <v>10</v>
+    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="H20" s="3"/>
-      <c r="I20">
-        <v>10</v>
+      <c r="H20" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21">
-        <v>11</v>
+    <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="H21" s="3"/>
-      <c r="I21">
-        <v>11</v>
+      <c r="H21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22">
-        <v>12</v>
+    <row r="22" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="H22" s="3"/>
-      <c r="I22">
-        <v>12</v>
+      <c r="H22" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23">
-        <v>13</v>
+    <row r="23" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="H23" s="3"/>
-      <c r="I23">
-        <v>13</v>
+      <c r="H23" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24">
-        <v>14</v>
+    <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="H24" s="3"/>
-      <c r="I24">
-        <v>14</v>
+      <c r="H24" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25">
-        <v>15</v>
+    <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="H25" s="3"/>
-      <c r="I25">
-        <v>15</v>
+      <c r="H25" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26">
-        <v>16</v>
+    <row r="26" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="H26" s="3"/>
-      <c r="I26">
-        <v>16</v>
+      <c r="H26" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27">
-        <v>17</v>
+    <row r="27" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="H27" s="3"/>
-      <c r="I27">
-        <v>17</v>
+      <c r="H27" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28">
-        <v>18</v>
+    <row r="28" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="H28" s="3"/>
-      <c r="I28">
-        <v>18</v>
+      <c r="H28" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29">
-        <v>19</v>
+    <row r="29" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="H29" s="3"/>
-      <c r="I29">
-        <v>19</v>
+      <c r="H29" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30">
-        <v>20</v>
+    <row r="30" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="H30" s="3"/>
-      <c r="I30">
-        <v>20</v>
+      <c r="H30" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31">
-        <v>21</v>
+    <row r="31" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="H31" s="3"/>
-      <c r="I31">
-        <v>21</v>
+      <c r="H31" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32">
-        <v>22</v>
+    <row r="32" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="H32" s="3"/>
-      <c r="I32">
-        <v>22</v>
+      <c r="H32" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33">
-        <v>23</v>
+    <row r="33" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="H33" s="3"/>
-      <c r="I33">
-        <v>23</v>
+      <c r="H33" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34">
-        <v>24</v>
+    <row r="34" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="H34" s="3"/>
-      <c r="I34">
-        <v>24</v>
+      <c r="H34" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35">
-        <v>25</v>
+    <row r="35" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="H35" s="3"/>
-      <c r="I35">
-        <v>25</v>
+      <c r="H35" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36">
-        <v>26</v>
+    <row r="36" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="H36" s="3"/>
-      <c r="I36">
-        <v>26</v>
+      <c r="H36" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37">
-        <v>27</v>
+    <row r="37" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="H37" s="3"/>
-      <c r="I37">
-        <v>27</v>
+      <c r="H37" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
@@ -18343,144 +17193,1059 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>4</v>
+    <row r="39" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="I39" t="s">
-        <v>4</v>
+      <c r="H39" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>5</v>
+    <row r="40" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="I40" t="s">
-        <v>5</v>
+      <c r="H40" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="41" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="I41" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="H41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" s="1"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="H43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="H44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="H45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="H46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="H47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="H48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="7"/>
+      <c r="H50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="7"/>
+      <c r="H51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="7"/>
+      <c r="H52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="7"/>
+      <c r="H53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="7"/>
+      <c r="H54" s="3"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="7"/>
+      <c r="H55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="7"/>
+      <c r="H56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="7"/>
+      <c r="H57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="H2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="38" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2CC089-ED86-483D-AB9D-BB4359FAA84C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="H3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="H4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="H5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="H6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="H7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="H13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="H15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="H17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="H19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="H21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="H22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="H23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="H24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="H25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="H26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="H27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="H28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="H29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="H30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="H33" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="H34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="B43" s="7"/>
       <c r="H43" s="2" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="B44" s="7"/>
       <c r="H44" s="2" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="B45" s="7"/>
       <c r="H45" s="2" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="B46" s="7"/>
       <c r="H46" s="2" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B47" s="7"/>
       <c r="H47" s="2" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="J48" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" t="s">
-        <v>3</v>
+      <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -18488,17 +18253,15 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50">
-        <v>0</v>
+      <c r="A50" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="H50" s="2"/>
-      <c r="I50">
-        <v>0</v>
+      <c r="H50" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -18506,17 +18269,15 @@
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51">
-        <v>1</v>
+      <c r="A51" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="H51" s="2"/>
-      <c r="I51">
-        <v>1</v>
+      <c r="H51" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -18524,17 +18285,15 @@
       <c r="M51" s="7"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52">
-        <v>2</v>
+      <c r="A52" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="H52" s="2"/>
-      <c r="I52">
-        <v>2</v>
+      <c r="H52" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
@@ -18542,17 +18301,15 @@
       <c r="M52" s="7"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53">
-        <v>3</v>
+      <c r="A53" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="H53" s="2"/>
-      <c r="I53">
-        <v>3</v>
+      <c r="H53" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -18572,54 +18329,54 @@
       <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="4"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="H55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I55" s="4"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="4"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H56" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I56" s="4"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="4"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="H57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I57" s="4"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -18695,1002 +18452,6 @@
     <mergeCell ref="H2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2CC089-ED86-483D-AB9D-BB4359FAA84C}">
-  <dimension ref="A1:M73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="H1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="H2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="H5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="3"/>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="3"/>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="3"/>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="H13" s="3"/>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="H15" s="3"/>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="H16" s="3"/>
-      <c r="I16">
-        <v>6</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="H17" s="3"/>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="H18" s="3"/>
-      <c r="I18">
-        <v>8</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19">
-        <v>9</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="H19" s="3"/>
-      <c r="I19">
-        <v>9</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="H20" s="3"/>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="H21" s="3"/>
-      <c r="I21">
-        <v>11</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="H22" s="3"/>
-      <c r="I22">
-        <v>12</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23">
-        <v>13</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="H23" s="3"/>
-      <c r="I23">
-        <v>13</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="H24" s="3"/>
-      <c r="I24">
-        <v>14</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="H25" s="3"/>
-      <c r="I25">
-        <v>15</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="H26" s="3"/>
-      <c r="I26">
-        <v>16</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27">
-        <v>17</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="H27" s="3"/>
-      <c r="I27">
-        <v>17</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28">
-        <v>18</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="H28" s="3"/>
-      <c r="I28">
-        <v>18</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29">
-        <v>19</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="H29" s="3"/>
-      <c r="I29">
-        <v>19</v>
-      </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="H30" s="3"/>
-      <c r="I30">
-        <v>20</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31">
-        <v>21</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="H31" s="3"/>
-      <c r="I31">
-        <v>21</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32">
-        <v>22</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="H32" s="3"/>
-      <c r="I32">
-        <v>22</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33">
-        <v>23</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="H33" s="3"/>
-      <c r="I33">
-        <v>23</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34">
-        <v>24</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="H34" s="3"/>
-      <c r="I34">
-        <v>24</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35">
-        <v>25</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="H35" s="3"/>
-      <c r="I35">
-        <v>25</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36">
-        <v>26</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="H36" s="3"/>
-      <c r="I36">
-        <v>26</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37">
-        <v>27</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="H37" s="3"/>
-      <c r="I37">
-        <v>27</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="I39" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="I40" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="I41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="H43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="H44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="H45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="H46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="H47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="J48" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="H50" s="2"/>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="H51" s="2"/>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="H52" s="2"/>
-      <c r="I52">
-        <v>2</v>
-      </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="H53" s="2"/>
-      <c r="I53">
-        <v>3</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="H54" s="3"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-    </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-    </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="H2:M2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>